--- a/Architektura/website_architecture_list.xlsx
+++ b/Architektura/website_architecture_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrabcak/github/SI/Architektura/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrabcak/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020A8FBD-B2B2-0B47-B94C-CA0085481105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FB0AC79-725B-EF45-AF1E-0523DCC231B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{C4DA45A7-D938-0747-83AB-FECF0C752D43}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="159">
   <si>
     <t>HOME</t>
   </si>
@@ -501,6 +501,18 @@
   </si>
   <si>
     <t>Moje osvedčenie o absolvovaní praxe</t>
+  </si>
+  <si>
+    <t>Priorita</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>MEDIUM</t>
+  </si>
+  <si>
+    <t>LOW</t>
   </si>
 </sst>
 </file>
@@ -516,12 +528,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -536,8 +566,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -852,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5B7B27-9C0C-C145-A167-201B91E0FE9A}">
-  <dimension ref="B2:AR52"/>
+  <dimension ref="A1:AR52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AN6" sqref="AN6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -872,12 +905,26 @@
     <col min="44" max="44" width="2.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="Y2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -900,7 +947,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>1</v>
       </c>
@@ -953,7 +1000,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>21</v>
       </c>
@@ -997,7 +1044,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>71</v>
       </c>
@@ -1041,7 +1088,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="L12" t="s">
         <v>64</v>
       </c>
@@ -1082,7 +1129,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="L14" t="s">
         <v>79</v>
       </c>
@@ -1123,7 +1170,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
       <c r="L16" t="s">
         <v>66</v>
       </c>

--- a/Architektura/website_architecture_list.xlsx
+++ b/Architektura/website_architecture_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentukfsk-my.sharepoint.com/personal/marek_hrabcak_student_ukf_sk/Documents/Mgr/SoftveroveInzinierstvo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrabcak/github/SI/Architektura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="8_{1FB0AC79-725B-EF45-AF1E-0523DCC231B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38D3E216-726D-F94F-8447-0CB8F840B32F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4515FD7-3848-F344-BAE0-43E0FECE5788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{C4DA45A7-D938-0747-83AB-FECF0C752D43}"/>
+    <workbookView xWindow="21840" yWindow="500" windowWidth="16560" windowHeight="21100" xr2:uid="{C4DA45A7-D938-0747-83AB-FECF0C752D43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="188">
   <si>
     <t>HOME</t>
   </si>
@@ -407,9 +407,6 @@
     <t>headReportList</t>
   </si>
   <si>
-    <t>headReportCreate</t>
-  </si>
-  <si>
     <t>headReportUpd</t>
   </si>
   <si>
@@ -467,15 +464,9 @@
     <t>respFeedDel</t>
   </si>
   <si>
-    <t>headrespList</t>
-  </si>
-  <si>
     <t>respReportRead</t>
   </si>
   <si>
-    <t>headrespUpd</t>
-  </si>
-  <si>
     <t>respReportAdd</t>
   </si>
   <si>
@@ -597,6 +588,18 @@
   </si>
   <si>
     <t>cmpRegDetail</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>headRespList</t>
+  </si>
+  <si>
+    <t>headRespUpd</t>
+  </si>
+  <si>
+    <t>headReportAdd</t>
   </si>
 </sst>
 </file>
@@ -612,12 +615,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -632,8 +641,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,10 +659,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -952,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5B7B27-9C0C-C145-A167-201B91E0FE9A}">
-  <dimension ref="B1:AT51"/>
+  <dimension ref="A1:AT51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AT5" sqref="AT5"/>
+    <sheetView tabSelected="1" topLeftCell="N2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -976,12 +982,15 @@
     <col min="45" max="45" width="2.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="Y1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -1004,18 +1013,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="F5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" t="s">
         <v>129</v>
-      </c>
-      <c r="G5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" t="s">
-        <v>130</v>
       </c>
       <c r="K5" t="s">
         <v>63</v>
@@ -1032,7 +1041,7 @@
       <c r="U5" t="s">
         <v>72</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V5" s="1" t="s">
         <v>118</v>
       </c>
       <c r="Y5" t="s">
@@ -1042,7 +1051,7 @@
         <v>72</v>
       </c>
       <c r="AD5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AG5" t="s">
         <v>15</v>
@@ -1051,7 +1060,7 @@
         <v>72</v>
       </c>
       <c r="AL5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AO5" t="s">
         <v>21</v>
@@ -1060,10 +1069,10 @@
         <v>72</v>
       </c>
       <c r="AT5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="2:46" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>21</v>
       </c>
@@ -1082,7 +1091,7 @@
       <c r="U7" t="s">
         <v>72</v>
       </c>
-      <c r="V7" t="s">
+      <c r="V7" s="1" t="s">
         <v>119</v>
       </c>
       <c r="Z7" t="s">
@@ -1092,7 +1101,7 @@
         <v>73</v>
       </c>
       <c r="AD7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AH7" t="s">
         <v>54</v>
@@ -1101,7 +1110,7 @@
         <v>73</v>
       </c>
       <c r="AL7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AP7" t="s">
         <v>45</v>
@@ -1110,10 +1119,10 @@
         <v>73</v>
       </c>
       <c r="AT7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="2:46" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>71</v>
       </c>
@@ -1132,7 +1141,7 @@
       <c r="U9" t="s">
         <v>72</v>
       </c>
-      <c r="V9" t="s">
+      <c r="V9" s="1" t="s">
         <v>120</v>
       </c>
       <c r="Z9" t="s">
@@ -1142,7 +1151,7 @@
         <v>74</v>
       </c>
       <c r="AD9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AH9" t="s">
         <v>37</v>
@@ -1151,7 +1160,7 @@
         <v>74</v>
       </c>
       <c r="AL9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AP9" t="s">
         <v>46</v>
@@ -1160,10 +1169,10 @@
         <v>74</v>
       </c>
       <c r="AT9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="2:46" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="L11" t="s">
         <v>64</v>
       </c>
@@ -1179,7 +1188,7 @@
       <c r="U11" t="s">
         <v>72</v>
       </c>
-      <c r="V11" t="s">
+      <c r="V11" s="1" t="s">
         <v>121</v>
       </c>
       <c r="Z11" t="s">
@@ -1189,7 +1198,7 @@
         <v>80</v>
       </c>
       <c r="AD11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AH11" t="s">
         <v>91</v>
@@ -1198,7 +1207,7 @@
         <v>80</v>
       </c>
       <c r="AL11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AO11" t="s">
         <v>24</v>
@@ -1207,10 +1216,10 @@
         <v>72</v>
       </c>
       <c r="AT11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="2:46" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="L13" t="s">
         <v>79</v>
       </c>
@@ -1226,7 +1235,7 @@
       <c r="U13" t="s">
         <v>72</v>
       </c>
-      <c r="V13" t="s">
+      <c r="V13" s="1" t="s">
         <v>122</v>
       </c>
       <c r="Y13" t="s">
@@ -1236,7 +1245,7 @@
         <v>72</v>
       </c>
       <c r="AD13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG13" t="s">
         <v>16</v>
@@ -1245,7 +1254,7 @@
         <v>72</v>
       </c>
       <c r="AL13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AP13" t="s">
         <v>47</v>
@@ -1254,10 +1263,10 @@
         <v>73</v>
       </c>
       <c r="AT13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="2:46" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="L15" t="s">
         <v>66</v>
       </c>
@@ -1273,8 +1282,8 @@
       <c r="U15" t="s">
         <v>73</v>
       </c>
-      <c r="V15" t="s">
-        <v>123</v>
+      <c r="V15" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="Z15" t="s">
         <v>31</v>
@@ -1283,7 +1292,7 @@
         <v>74</v>
       </c>
       <c r="AD15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AH15" t="s">
         <v>55</v>
@@ -1292,7 +1301,7 @@
         <v>73</v>
       </c>
       <c r="AL15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AP15" t="s">
         <v>27</v>
@@ -1301,7 +1310,7 @@
         <v>74</v>
       </c>
       <c r="AT15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="11:46" x14ac:dyDescent="0.2">
@@ -1320,8 +1329,8 @@
       <c r="U17" t="s">
         <v>74</v>
       </c>
-      <c r="V17" t="s">
-        <v>124</v>
+      <c r="V17" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="Y17" t="s">
         <v>12</v>
@@ -1330,7 +1339,7 @@
         <v>72</v>
       </c>
       <c r="AD17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AH17" t="s">
         <v>56</v>
@@ -1339,7 +1348,7 @@
         <v>74</v>
       </c>
       <c r="AL17" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AO17" t="s">
         <v>22</v>
@@ -1348,7 +1357,7 @@
         <v>72</v>
       </c>
       <c r="AT17" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="11:46" x14ac:dyDescent="0.2">
@@ -1368,7 +1377,7 @@
         <v>80</v>
       </c>
       <c r="V19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Z19" t="s">
         <v>33</v>
@@ -1377,7 +1386,7 @@
         <v>73</v>
       </c>
       <c r="AD19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AH19" t="s">
         <v>92</v>
@@ -1386,7 +1395,7 @@
         <v>80</v>
       </c>
       <c r="AL19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AP19" t="s">
         <v>48</v>
@@ -1395,7 +1404,7 @@
         <v>74</v>
       </c>
       <c r="AT19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="11:46" x14ac:dyDescent="0.2">
@@ -1414,8 +1423,8 @@
       <c r="U21" t="s">
         <v>72</v>
       </c>
-      <c r="V21" t="s">
-        <v>126</v>
+      <c r="V21" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="Z21" t="s">
         <v>34</v>
@@ -1424,7 +1433,7 @@
         <v>74</v>
       </c>
       <c r="AD21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AG21" t="s">
         <v>17</v>
@@ -1433,7 +1442,7 @@
         <v>72</v>
       </c>
       <c r="AL21" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AO21" t="s">
         <v>23</v>
@@ -1442,7 +1451,7 @@
         <v>72</v>
       </c>
       <c r="AT21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="11:46" x14ac:dyDescent="0.2">
@@ -1461,17 +1470,17 @@
       <c r="U23" t="s">
         <v>72</v>
       </c>
-      <c r="V23" t="s">
+      <c r="V23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z23" t="s">
         <v>127</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>128</v>
       </c>
       <c r="AC23" t="s">
         <v>80</v>
       </c>
       <c r="AD23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AH23" t="s">
         <v>57</v>
@@ -1480,7 +1489,7 @@
         <v>73</v>
       </c>
       <c r="AL23" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AP23" t="s">
         <v>47</v>
@@ -1489,7 +1498,7 @@
         <v>73</v>
       </c>
       <c r="AT23" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="11:46" x14ac:dyDescent="0.2">
@@ -1508,8 +1517,8 @@
       <c r="U25" t="s">
         <v>72</v>
       </c>
-      <c r="V25" t="s">
-        <v>143</v>
+      <c r="V25" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="Y25" t="s">
         <v>13</v>
@@ -1518,7 +1527,7 @@
         <v>72</v>
       </c>
       <c r="AD25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AH25" t="s">
         <v>58</v>
@@ -1527,7 +1536,7 @@
         <v>74</v>
       </c>
       <c r="AL25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AP25" t="s">
         <v>27</v>
@@ -1536,7 +1545,7 @@
         <v>74</v>
       </c>
       <c r="AT25" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="11:46" x14ac:dyDescent="0.2">
@@ -1555,8 +1564,8 @@
       <c r="U27" t="s">
         <v>74</v>
       </c>
-      <c r="V27" t="s">
-        <v>145</v>
+      <c r="V27" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="Z27" t="s">
         <v>51</v>
@@ -1565,7 +1574,7 @@
         <v>73</v>
       </c>
       <c r="AD27" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AH27" t="s">
         <v>93</v>
@@ -1574,16 +1583,16 @@
         <v>80</v>
       </c>
       <c r="AL27" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AP27" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AS27" t="s">
         <v>80</v>
       </c>
       <c r="AT27" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="11:46" x14ac:dyDescent="0.2">
@@ -1603,7 +1612,7 @@
         <v>74</v>
       </c>
       <c r="AD29" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AG29" t="s">
         <v>18</v>
@@ -1612,7 +1621,7 @@
         <v>72</v>
       </c>
       <c r="AL29" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="11:46" x14ac:dyDescent="0.2">
@@ -1632,7 +1641,7 @@
         <v>80</v>
       </c>
       <c r="AD31" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AH31" t="s">
         <v>59</v>
@@ -1641,7 +1650,7 @@
         <v>74</v>
       </c>
       <c r="AL31" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="11:38" x14ac:dyDescent="0.2">
@@ -1661,7 +1670,7 @@
         <v>72</v>
       </c>
       <c r="AD33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG33" t="s">
         <v>19</v>
@@ -1670,7 +1679,7 @@
         <v>72</v>
       </c>
       <c r="AL33" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="11:38" x14ac:dyDescent="0.2">
@@ -1690,7 +1699,7 @@
         <v>74</v>
       </c>
       <c r="AD35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AH35" t="s">
         <v>60</v>
@@ -1699,7 +1708,7 @@
         <v>73</v>
       </c>
       <c r="AL35" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="11:38" x14ac:dyDescent="0.2">
@@ -1719,7 +1728,7 @@
         <v>72</v>
       </c>
       <c r="AD37" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AH37" t="s">
         <v>61</v>
@@ -1728,7 +1737,7 @@
         <v>74</v>
       </c>
       <c r="AL37" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="11:38" x14ac:dyDescent="0.2">
@@ -1748,7 +1757,7 @@
         <v>73</v>
       </c>
       <c r="AD39" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AH39" t="s">
         <v>94</v>
@@ -1757,12 +1766,12 @@
         <v>80</v>
       </c>
       <c r="AL39" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="11:38" x14ac:dyDescent="0.2">
       <c r="K41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M41" t="s">
         <v>72</v>
@@ -1777,7 +1786,7 @@
         <v>72</v>
       </c>
       <c r="AD41" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AG41" t="s">
         <v>20</v>
@@ -1786,7 +1795,7 @@
         <v>72</v>
       </c>
       <c r="AL41" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="11:38" x14ac:dyDescent="0.2">
@@ -1806,7 +1815,7 @@
         <v>73</v>
       </c>
       <c r="AD43" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="11:38" x14ac:dyDescent="0.2">
@@ -1826,7 +1835,7 @@
         <v>74</v>
       </c>
       <c r="AD45" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="11:38" x14ac:dyDescent="0.2">
@@ -1846,7 +1855,7 @@
         <v>80</v>
       </c>
       <c r="AD47" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="11:14" x14ac:dyDescent="0.2">
@@ -1862,7 +1871,7 @@
     </row>
     <row r="51" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M51" t="s">
         <v>72</v>

--- a/Architektura/website_architecture_list.xlsx
+++ b/Architektura/website_architecture_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrabcak/github/SI/Architektura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4515FD7-3848-F344-BAE0-43E0FECE5788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01ECB46C-9649-9B49-A2CF-7D4E973AB4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21840" yWindow="500" windowWidth="16560" windowHeight="21100" xr2:uid="{C4DA45A7-D938-0747-83AB-FECF0C752D43}"/>
   </bookViews>
@@ -960,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5B7B27-9C0C-C145-A167-201B91E0FE9A}">
   <dimension ref="A1:AT51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5:Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1882,5 +1882,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Architektura/website_architecture_list.xlsx
+++ b/Architektura/website_architecture_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrabcak/github/SI/Architektura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01ECB46C-9649-9B49-A2CF-7D4E973AB4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E1AA81-22CB-F040-A292-F093F1F4069B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21840" yWindow="500" windowWidth="16560" windowHeight="21100" xr2:uid="{C4DA45A7-D938-0747-83AB-FECF0C752D43}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C4DA45A7-D938-0747-83AB-FECF0C752D43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="190">
   <si>
     <t>HOME</t>
   </si>
@@ -600,6 +600,12 @@
   </si>
   <si>
     <t>headReportAdd</t>
+  </si>
+  <si>
+    <t>Pridanie povereného pracovníka pracoviska</t>
+  </si>
+  <si>
+    <t>headRespAdd</t>
   </si>
 </sst>
 </file>
@@ -960,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5B7B27-9C0C-C145-A167-201B91E0FE9A}">
   <dimension ref="A1:AT51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5:Q25"/>
+    <sheetView tabSelected="1" topLeftCell="N17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1605,6 +1611,15 @@
       <c r="N29" t="s">
         <v>105</v>
       </c>
+      <c r="R29" t="s">
+        <v>188</v>
+      </c>
+      <c r="U29" t="s">
+        <v>74</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="Z29" t="s">
         <v>52</v>
       </c>

--- a/Architektura/website_architecture_list.xlsx
+++ b/Architektura/website_architecture_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrabcak/github/SI/Architektura/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakub\PhpstormProjects\Project_SI\Architektura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E1AA81-22CB-F040-A292-F093F1F4069B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2223EEC9-0D31-42A6-9D36-A90EE619FDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C4DA45A7-D938-0747-83AB-FECF0C752D43}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C4DA45A7-D938-0747-83AB-FECF0C752D43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -621,7 +621,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -631,6 +631,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,12 +653,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -668,7 +675,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -966,29 +973,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5B7B27-9C0C-C145-A167-201B91E0FE9A}">
   <dimension ref="A1:AT51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="V30" sqref="V30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="N51" sqref="N51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.33203125" customWidth="1"/>
-    <col min="12" max="12" width="26.1640625" customWidth="1"/>
+    <col min="7" max="7" width="2.296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.296875" customWidth="1"/>
+    <col min="12" max="12" width="26.19921875" customWidth="1"/>
     <col min="13" max="13" width="2.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="2.5" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="2.5" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="3.5" customWidth="1"/>
-    <col min="33" max="33" width="5.1640625" customWidth="1"/>
+    <col min="33" max="33" width="5.19921875" customWidth="1"/>
     <col min="37" max="37" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.6640625" customWidth="1"/>
+    <col min="40" max="40" width="5.69921875" customWidth="1"/>
     <col min="41" max="41" width="8.5" customWidth="1"/>
     <col min="45" max="45" width="2.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>184</v>
       </c>
@@ -996,7 +1003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -1019,7 +1026,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>1</v>
       </c>
@@ -1038,7 +1045,7 @@
       <c r="M5" t="s">
         <v>72</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="2" t="s">
         <v>117</v>
       </c>
       <c r="Q5" t="s">
@@ -1078,7 +1085,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>21</v>
       </c>
@@ -1088,7 +1095,7 @@
       <c r="M7" t="s">
         <v>72</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="2" t="s">
         <v>95</v>
       </c>
       <c r="Q7" t="s">
@@ -1128,7 +1135,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>71</v>
       </c>
@@ -1138,7 +1145,7 @@
       <c r="M9" t="s">
         <v>73</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="2" t="s">
         <v>96</v>
       </c>
       <c r="Q9" t="s">
@@ -1178,14 +1185,14 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
       <c r="L11" t="s">
         <v>64</v>
       </c>
       <c r="M11" t="s">
         <v>74</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="2" t="s">
         <v>97</v>
       </c>
       <c r="Q11" t="s">
@@ -1225,7 +1232,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
       <c r="L13" t="s">
         <v>79</v>
       </c>
@@ -1272,14 +1279,14 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
       <c r="L15" t="s">
         <v>66</v>
       </c>
       <c r="M15" t="s">
         <v>73</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="2" t="s">
         <v>99</v>
       </c>
       <c r="R15" t="s">
@@ -1319,14 +1326,14 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="11:46" x14ac:dyDescent="0.2">
+    <row r="17" spans="11:46" x14ac:dyDescent="0.3">
       <c r="L17" t="s">
         <v>67</v>
       </c>
       <c r="M17" t="s">
         <v>74</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" s="2" t="s">
         <v>100</v>
       </c>
       <c r="R17" t="s">
@@ -1366,7 +1373,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="11:46" x14ac:dyDescent="0.2">
+    <row r="19" spans="11:46" x14ac:dyDescent="0.3">
       <c r="L19" t="s">
         <v>81</v>
       </c>
@@ -1413,14 +1420,14 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="11:46" x14ac:dyDescent="0.2">
+    <row r="21" spans="11:46" x14ac:dyDescent="0.3">
       <c r="K21" t="s">
         <v>76</v>
       </c>
       <c r="M21" t="s">
         <v>72</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" s="2" t="s">
         <v>102</v>
       </c>
       <c r="Q21" t="s">
@@ -1460,14 +1467,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="11:46" x14ac:dyDescent="0.2">
+    <row r="23" spans="11:46" x14ac:dyDescent="0.3">
       <c r="L23" t="s">
         <v>78</v>
       </c>
       <c r="M23" t="s">
         <v>74</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N23" s="2" t="s">
         <v>103</v>
       </c>
       <c r="Q23" t="s">
@@ -1507,14 +1514,14 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="11:46" x14ac:dyDescent="0.2">
+    <row r="25" spans="11:46" x14ac:dyDescent="0.3">
       <c r="K25" t="s">
         <v>75</v>
       </c>
       <c r="M25" t="s">
         <v>72</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N25" s="2" t="s">
         <v>102</v>
       </c>
       <c r="Q25" t="s">
@@ -1554,14 +1561,14 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="11:46" x14ac:dyDescent="0.2">
+    <row r="27" spans="11:46" x14ac:dyDescent="0.3">
       <c r="L27" t="s">
         <v>77</v>
       </c>
       <c r="M27" t="s">
         <v>73</v>
       </c>
-      <c r="N27" t="s">
+      <c r="N27" s="2" t="s">
         <v>104</v>
       </c>
       <c r="R27" t="s">
@@ -1601,14 +1608,14 @@
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="11:46" x14ac:dyDescent="0.2">
+    <row r="29" spans="11:46" x14ac:dyDescent="0.3">
       <c r="L29" t="s">
         <v>68</v>
       </c>
       <c r="M29" t="s">
         <v>74</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N29" s="2" t="s">
         <v>105</v>
       </c>
       <c r="R29" t="s">
@@ -1639,7 +1646,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="11:46" x14ac:dyDescent="0.2">
+    <row r="31" spans="11:46" x14ac:dyDescent="0.3">
       <c r="L31" t="s">
         <v>82</v>
       </c>
@@ -1668,14 +1675,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="11:38" x14ac:dyDescent="0.2">
+    <row r="33" spans="11:38" x14ac:dyDescent="0.3">
       <c r="K33" t="s">
         <v>26</v>
       </c>
       <c r="M33" t="s">
         <v>72</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N33" s="2" t="s">
         <v>107</v>
       </c>
       <c r="Y33" t="s">
@@ -1697,14 +1704,14 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="11:38" x14ac:dyDescent="0.2">
+    <row r="35" spans="11:38" x14ac:dyDescent="0.3">
       <c r="L35" t="s">
         <v>69</v>
       </c>
       <c r="M35" t="s">
         <v>73</v>
       </c>
-      <c r="N35" t="s">
+      <c r="N35" s="2" t="s">
         <v>108</v>
       </c>
       <c r="Z35" t="s">
@@ -1726,14 +1733,14 @@
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="11:38" x14ac:dyDescent="0.2">
+    <row r="37" spans="11:38" x14ac:dyDescent="0.3">
       <c r="L37" t="s">
         <v>70</v>
       </c>
       <c r="M37" t="s">
         <v>74</v>
       </c>
-      <c r="N37" t="s">
+      <c r="N37" s="2" t="s">
         <v>109</v>
       </c>
       <c r="Y37" t="s">
@@ -1755,7 +1762,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="39" spans="11:38" x14ac:dyDescent="0.2">
+    <row r="39" spans="11:38" x14ac:dyDescent="0.3">
       <c r="L39" t="s">
         <v>83</v>
       </c>
@@ -1784,14 +1791,14 @@
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="11:38" x14ac:dyDescent="0.2">
+    <row r="41" spans="11:38" x14ac:dyDescent="0.3">
       <c r="K41" t="s">
         <v>130</v>
       </c>
       <c r="M41" t="s">
         <v>72</v>
       </c>
-      <c r="N41" t="s">
+      <c r="N41" s="2" t="s">
         <v>111</v>
       </c>
       <c r="Y41" t="s">
@@ -1813,14 +1820,14 @@
         <v>170</v>
       </c>
     </row>
-    <row r="43" spans="11:38" x14ac:dyDescent="0.2">
+    <row r="43" spans="11:38" x14ac:dyDescent="0.3">
       <c r="K43" t="s">
         <v>28</v>
       </c>
       <c r="M43" t="s">
         <v>72</v>
       </c>
-      <c r="N43" t="s">
+      <c r="N43" s="2" t="s">
         <v>112</v>
       </c>
       <c r="Z43" t="s">
@@ -1833,14 +1840,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="11:38" x14ac:dyDescent="0.2">
+    <row r="45" spans="11:38" x14ac:dyDescent="0.3">
       <c r="L45" t="s">
         <v>3</v>
       </c>
       <c r="M45" t="s">
         <v>73</v>
       </c>
-      <c r="N45" t="s">
+      <c r="N45" s="2" t="s">
         <v>114</v>
       </c>
       <c r="Z45" t="s">
@@ -1853,14 +1860,14 @@
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="11:38" x14ac:dyDescent="0.2">
+    <row r="47" spans="11:38" x14ac:dyDescent="0.3">
       <c r="L47" t="s">
         <v>27</v>
       </c>
       <c r="M47" t="s">
         <v>74</v>
       </c>
-      <c r="N47" t="s">
+      <c r="N47" s="2" t="s">
         <v>113</v>
       </c>
       <c r="Z47" t="s">
@@ -1873,7 +1880,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="11:14" x14ac:dyDescent="0.3">
       <c r="L49" t="s">
         <v>84</v>
       </c>
@@ -1884,14 +1891,14 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K51" t="s">
         <v>131</v>
       </c>
       <c r="M51" t="s">
         <v>72</v>
       </c>
-      <c r="N51" t="s">
+      <c r="N51" s="2" t="s">
         <v>116</v>
       </c>
     </row>

--- a/Architektura/website_architecture_list.xlsx
+++ b/Architektura/website_architecture_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakub\PhpstormProjects\Project_SI\Architektura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Project_SI\Architektura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2223EEC9-0D31-42A6-9D36-A90EE619FDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E208F8-9F1C-40D2-978E-0B62DBA06C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C4DA45A7-D938-0747-83AB-FECF0C752D43}"/>
+    <workbookView xWindow="9420" yWindow="3150" windowWidth="21600" windowHeight="11505" xr2:uid="{C4DA45A7-D938-0747-83AB-FECF0C752D43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -973,29 +973,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5B7B27-9C0C-C145-A167-201B91E0FE9A}">
   <dimension ref="A1:AT51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="N51" sqref="N51"/>
+    <sheetView tabSelected="1" topLeftCell="S13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AN27" sqref="AN27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="2.296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.296875" customWidth="1"/>
-    <col min="12" max="12" width="26.19921875" customWidth="1"/>
+    <col min="7" max="7" width="2.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="26.25" customWidth="1"/>
     <col min="13" max="13" width="2.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="2.5" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="2.5" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="3.5" customWidth="1"/>
-    <col min="33" max="33" width="5.19921875" customWidth="1"/>
+    <col min="33" max="33" width="5.25" customWidth="1"/>
     <col min="37" max="37" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.69921875" customWidth="1"/>
+    <col min="40" max="40" width="5.75" customWidth="1"/>
     <col min="41" max="41" width="8.5" customWidth="1"/>
     <col min="45" max="45" width="2.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>184</v>
       </c>
@@ -1003,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -1026,7 +1025,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>1</v>
       </c>
@@ -1072,7 +1071,7 @@
       <c r="AK5" t="s">
         <v>72</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AL5" s="1" t="s">
         <v>152</v>
       </c>
       <c r="AO5" t="s">
@@ -1085,7 +1084,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>21</v>
       </c>
@@ -1122,7 +1121,7 @@
       <c r="AK7" t="s">
         <v>73</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AL7" s="1" t="s">
         <v>153</v>
       </c>
       <c r="AP7" t="s">
@@ -1135,7 +1134,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>71</v>
       </c>
@@ -1172,7 +1171,7 @@
       <c r="AK9" t="s">
         <v>74</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AL9" s="1" t="s">
         <v>154</v>
       </c>
       <c r="AP9" t="s">
@@ -1185,7 +1184,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="L11" t="s">
         <v>64</v>
       </c>
@@ -1232,7 +1231,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="L13" t="s">
         <v>79</v>
       </c>
@@ -1266,7 +1265,7 @@
       <c r="AK13" t="s">
         <v>72</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AL13" s="1" t="s">
         <v>156</v>
       </c>
       <c r="AP13" t="s">
@@ -1279,7 +1278,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="L15" t="s">
         <v>66</v>
       </c>
@@ -1313,7 +1312,7 @@
       <c r="AK15" t="s">
         <v>73</v>
       </c>
-      <c r="AL15" t="s">
+      <c r="AL15" s="1" t="s">
         <v>157</v>
       </c>
       <c r="AP15" t="s">
@@ -1326,7 +1325,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="11:46" x14ac:dyDescent="0.3">
+    <row r="17" spans="11:46" x14ac:dyDescent="0.25">
       <c r="L17" t="s">
         <v>67</v>
       </c>
@@ -1360,7 +1359,7 @@
       <c r="AK17" t="s">
         <v>74</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AL17" s="1" t="s">
         <v>158</v>
       </c>
       <c r="AO17" t="s">
@@ -1373,7 +1372,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="11:46" x14ac:dyDescent="0.3">
+    <row r="19" spans="11:46" x14ac:dyDescent="0.25">
       <c r="L19" t="s">
         <v>81</v>
       </c>
@@ -1420,7 +1419,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="11:46" x14ac:dyDescent="0.3">
+    <row r="21" spans="11:46" x14ac:dyDescent="0.25">
       <c r="K21" t="s">
         <v>76</v>
       </c>
@@ -1454,7 +1453,7 @@
       <c r="AK21" t="s">
         <v>72</v>
       </c>
-      <c r="AL21" t="s">
+      <c r="AL21" s="1" t="s">
         <v>160</v>
       </c>
       <c r="AO21" t="s">
@@ -1467,7 +1466,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="11:46" x14ac:dyDescent="0.3">
+    <row r="23" spans="11:46" x14ac:dyDescent="0.25">
       <c r="L23" t="s">
         <v>78</v>
       </c>
@@ -1501,7 +1500,7 @@
       <c r="AK23" t="s">
         <v>73</v>
       </c>
-      <c r="AL23" t="s">
+      <c r="AL23" s="1" t="s">
         <v>161</v>
       </c>
       <c r="AP23" t="s">
@@ -1514,7 +1513,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="11:46" x14ac:dyDescent="0.3">
+    <row r="25" spans="11:46" x14ac:dyDescent="0.25">
       <c r="K25" t="s">
         <v>75</v>
       </c>
@@ -1548,7 +1547,7 @@
       <c r="AK25" t="s">
         <v>74</v>
       </c>
-      <c r="AL25" t="s">
+      <c r="AL25" s="1" t="s">
         <v>162</v>
       </c>
       <c r="AP25" t="s">
@@ -1561,7 +1560,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="11:46" x14ac:dyDescent="0.3">
+    <row r="27" spans="11:46" x14ac:dyDescent="0.25">
       <c r="L27" t="s">
         <v>77</v>
       </c>
@@ -1608,7 +1607,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="11:46" x14ac:dyDescent="0.3">
+    <row r="29" spans="11:46" x14ac:dyDescent="0.25">
       <c r="L29" t="s">
         <v>68</v>
       </c>
@@ -1642,11 +1641,11 @@
       <c r="AK29" t="s">
         <v>72</v>
       </c>
-      <c r="AL29" t="s">
+      <c r="AL29" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="11:46" x14ac:dyDescent="0.3">
+    <row r="31" spans="11:46" x14ac:dyDescent="0.25">
       <c r="L31" t="s">
         <v>82</v>
       </c>
@@ -1671,11 +1670,11 @@
       <c r="AK31" t="s">
         <v>74</v>
       </c>
-      <c r="AL31" t="s">
+      <c r="AL31" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="11:38" x14ac:dyDescent="0.3">
+    <row r="33" spans="11:38" x14ac:dyDescent="0.25">
       <c r="K33" t="s">
         <v>26</v>
       </c>
@@ -1700,11 +1699,11 @@
       <c r="AK33" t="s">
         <v>72</v>
       </c>
-      <c r="AL33" t="s">
+      <c r="AL33" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="11:38" x14ac:dyDescent="0.3">
+    <row r="35" spans="11:38" x14ac:dyDescent="0.25">
       <c r="L35" t="s">
         <v>69</v>
       </c>
@@ -1729,11 +1728,11 @@
       <c r="AK35" t="s">
         <v>73</v>
       </c>
-      <c r="AL35" t="s">
+      <c r="AL35" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="11:38" x14ac:dyDescent="0.3">
+    <row r="37" spans="11:38" x14ac:dyDescent="0.25">
       <c r="L37" t="s">
         <v>70</v>
       </c>
@@ -1758,11 +1757,11 @@
       <c r="AK37" t="s">
         <v>74</v>
       </c>
-      <c r="AL37" t="s">
+      <c r="AL37" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="39" spans="11:38" x14ac:dyDescent="0.3">
+    <row r="39" spans="11:38" x14ac:dyDescent="0.25">
       <c r="L39" t="s">
         <v>83</v>
       </c>
@@ -1791,7 +1790,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="11:38" x14ac:dyDescent="0.3">
+    <row r="41" spans="11:38" x14ac:dyDescent="0.25">
       <c r="K41" t="s">
         <v>130</v>
       </c>
@@ -1816,11 +1815,11 @@
       <c r="AK41" t="s">
         <v>72</v>
       </c>
-      <c r="AL41" t="s">
+      <c r="AL41" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="43" spans="11:38" x14ac:dyDescent="0.3">
+    <row r="43" spans="11:38" x14ac:dyDescent="0.25">
       <c r="K43" t="s">
         <v>28</v>
       </c>
@@ -1840,7 +1839,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="11:38" x14ac:dyDescent="0.3">
+    <row r="45" spans="11:38" x14ac:dyDescent="0.25">
       <c r="L45" t="s">
         <v>3</v>
       </c>
@@ -1860,7 +1859,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="11:38" x14ac:dyDescent="0.3">
+    <row r="47" spans="11:38" x14ac:dyDescent="0.25">
       <c r="L47" t="s">
         <v>27</v>
       </c>
@@ -1880,7 +1879,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="11:14" x14ac:dyDescent="0.25">
       <c r="L49" t="s">
         <v>84</v>
       </c>
@@ -1891,7 +1890,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="11:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K51" t="s">
         <v>131</v>
       </c>

--- a/Architektura/website_architecture_list.xlsx
+++ b/Architektura/website_architecture_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Project_SI\Architektura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E208F8-9F1C-40D2-978E-0B62DBA06C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B37198F-418D-4073-A9F5-4B271A68D6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="3150" windowWidth="21600" windowHeight="11505" xr2:uid="{C4DA45A7-D938-0747-83AB-FECF0C752D43}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C4DA45A7-D938-0747-83AB-FECF0C752D43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -621,7 +621,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -640,6 +640,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -653,10 +659,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -973,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5B7B27-9C0C-C145-A167-201B91E0FE9A}">
   <dimension ref="A1:AT51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AN27" sqref="AN27"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AX29" sqref="AX29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1080,7 +1087,7 @@
       <c r="AS5" t="s">
         <v>72</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AT5" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1227,7 +1234,7 @@
       <c r="AS11" t="s">
         <v>72</v>
       </c>
-      <c r="AT11" t="s">
+      <c r="AT11" s="1" t="s">
         <v>174</v>
       </c>
     </row>
@@ -1265,7 +1272,7 @@
       <c r="AK13" t="s">
         <v>72</v>
       </c>
-      <c r="AL13" s="1" t="s">
+      <c r="AL13" s="3" t="s">
         <v>156</v>
       </c>
       <c r="AP13" t="s">
@@ -1274,7 +1281,7 @@
       <c r="AS13" t="s">
         <v>73</v>
       </c>
-      <c r="AT13" t="s">
+      <c r="AT13" s="1" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1312,7 +1319,7 @@
       <c r="AK15" t="s">
         <v>73</v>
       </c>
-      <c r="AL15" s="1" t="s">
+      <c r="AL15" s="3" t="s">
         <v>157</v>
       </c>
       <c r="AP15" t="s">
@@ -1321,7 +1328,7 @@
       <c r="AS15" t="s">
         <v>74</v>
       </c>
-      <c r="AT15" t="s">
+      <c r="AT15" s="1" t="s">
         <v>176</v>
       </c>
     </row>
@@ -1359,7 +1366,7 @@
       <c r="AK17" t="s">
         <v>74</v>
       </c>
-      <c r="AL17" s="1" t="s">
+      <c r="AL17" s="3" t="s">
         <v>158</v>
       </c>
       <c r="AO17" t="s">
@@ -1368,7 +1375,7 @@
       <c r="AS17" t="s">
         <v>72</v>
       </c>
-      <c r="AT17" t="s">
+      <c r="AT17" s="1" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1415,7 +1422,7 @@
       <c r="AS19" t="s">
         <v>74</v>
       </c>
-      <c r="AT19" t="s">
+      <c r="AT19" s="1" t="s">
         <v>178</v>
       </c>
     </row>
@@ -1462,7 +1469,7 @@
       <c r="AS21" t="s">
         <v>72</v>
       </c>
-      <c r="AT21" t="s">
+      <c r="AT21" s="1" t="s">
         <v>179</v>
       </c>
     </row>
@@ -1509,7 +1516,7 @@
       <c r="AS23" t="s">
         <v>73</v>
       </c>
-      <c r="AT23" t="s">
+      <c r="AT23" s="1" t="s">
         <v>180</v>
       </c>
     </row>
@@ -1556,7 +1563,7 @@
       <c r="AS25" t="s">
         <v>74</v>
       </c>
-      <c r="AT25" t="s">
+      <c r="AT25" s="1" t="s">
         <v>181</v>
       </c>
     </row>

--- a/Architektura/website_architecture_list.xlsx
+++ b/Architektura/website_architecture_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Project_SI\Architektura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakub\PhpstormProjects\Project_SI\Architektura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B37198F-418D-4073-A9F5-4B271A68D6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BA2F7A-641C-4050-B116-09EBE90D3B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C4DA45A7-D938-0747-83AB-FECF0C752D43}"/>
+    <workbookView minimized="1" xWindow="1080" yWindow="1080" windowWidth="15432" windowHeight="8508" xr2:uid="{C4DA45A7-D938-0747-83AB-FECF0C752D43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -980,28 +980,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5B7B27-9C0C-C145-A167-201B91E0FE9A}">
   <dimension ref="A1:AT51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AX29" sqref="AX29"/>
+    <sheetView tabSelected="1" topLeftCell="F11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="2.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="26.25" customWidth="1"/>
+    <col min="7" max="7" width="2.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="26.19921875" customWidth="1"/>
     <col min="13" max="13" width="2.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.3984375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.09765625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="3.5" customWidth="1"/>
-    <col min="33" max="33" width="5.25" customWidth="1"/>
+    <col min="33" max="33" width="5.19921875" customWidth="1"/>
     <col min="37" max="37" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.75" customWidth="1"/>
+    <col min="40" max="40" width="5.69921875" customWidth="1"/>
     <col min="41" max="41" width="8.5" customWidth="1"/>
     <col min="45" max="45" width="2.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>184</v>
       </c>
@@ -1009,7 +1011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -1032,7 +1034,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>1</v>
       </c>
@@ -1091,7 +1093,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>21</v>
       </c>
@@ -1141,7 +1143,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>71</v>
       </c>
@@ -1191,7 +1193,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
       <c r="L11" t="s">
         <v>64</v>
       </c>
@@ -1238,7 +1240,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
       <c r="L13" t="s">
         <v>79</v>
       </c>
@@ -1285,7 +1287,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
       <c r="L15" t="s">
         <v>66</v>
       </c>
@@ -1332,7 +1334,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="11:46" x14ac:dyDescent="0.25">
+    <row r="17" spans="11:46" x14ac:dyDescent="0.3">
       <c r="L17" t="s">
         <v>67</v>
       </c>
@@ -1379,7 +1381,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="11:46" x14ac:dyDescent="0.25">
+    <row r="19" spans="11:46" x14ac:dyDescent="0.3">
       <c r="L19" t="s">
         <v>81</v>
       </c>
@@ -1426,7 +1428,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="11:46" x14ac:dyDescent="0.25">
+    <row r="21" spans="11:46" x14ac:dyDescent="0.3">
       <c r="K21" t="s">
         <v>76</v>
       </c>
@@ -1473,7 +1475,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="11:46" x14ac:dyDescent="0.25">
+    <row r="23" spans="11:46" x14ac:dyDescent="0.3">
       <c r="L23" t="s">
         <v>78</v>
       </c>
@@ -1520,7 +1522,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="11:46" x14ac:dyDescent="0.25">
+    <row r="25" spans="11:46" x14ac:dyDescent="0.3">
       <c r="K25" t="s">
         <v>75</v>
       </c>
@@ -1567,7 +1569,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="11:46" x14ac:dyDescent="0.25">
+    <row r="27" spans="11:46" x14ac:dyDescent="0.3">
       <c r="L27" t="s">
         <v>77</v>
       </c>
@@ -1614,7 +1616,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="11:46" x14ac:dyDescent="0.25">
+    <row r="29" spans="11:46" x14ac:dyDescent="0.3">
       <c r="L29" t="s">
         <v>68</v>
       </c>
@@ -1652,7 +1654,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="11:46" x14ac:dyDescent="0.25">
+    <row r="31" spans="11:46" x14ac:dyDescent="0.3">
       <c r="L31" t="s">
         <v>82</v>
       </c>
@@ -1681,7 +1683,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="11:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="11:38" x14ac:dyDescent="0.3">
       <c r="K33" t="s">
         <v>26</v>
       </c>
@@ -1710,7 +1712,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="11:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="11:38" x14ac:dyDescent="0.3">
       <c r="L35" t="s">
         <v>69</v>
       </c>
@@ -1739,7 +1741,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="11:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="11:38" x14ac:dyDescent="0.3">
       <c r="L37" t="s">
         <v>70</v>
       </c>
@@ -1768,7 +1770,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="39" spans="11:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="11:38" x14ac:dyDescent="0.3">
       <c r="L39" t="s">
         <v>83</v>
       </c>
@@ -1797,7 +1799,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="11:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="11:38" x14ac:dyDescent="0.3">
       <c r="K41" t="s">
         <v>130</v>
       </c>
@@ -1826,7 +1828,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="43" spans="11:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="11:38" x14ac:dyDescent="0.3">
       <c r="K43" t="s">
         <v>28</v>
       </c>
@@ -1846,7 +1848,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="11:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="11:38" x14ac:dyDescent="0.3">
       <c r="L45" t="s">
         <v>3</v>
       </c>
@@ -1866,7 +1868,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="11:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="11:38" x14ac:dyDescent="0.3">
       <c r="L47" t="s">
         <v>27</v>
       </c>
@@ -1886,7 +1888,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="11:14" x14ac:dyDescent="0.3">
       <c r="L49" t="s">
         <v>84</v>
       </c>
@@ -1897,7 +1899,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K51" t="s">
         <v>131</v>
       </c>

--- a/Architektura/website_architecture_list.xlsx
+++ b/Architektura/website_architecture_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakub\PhpstormProjects\Project_SI\Architektura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BA2F7A-641C-4050-B116-09EBE90D3B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB891E6-E64B-45FB-AE14-DA59A9434799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1080" yWindow="1080" windowWidth="15432" windowHeight="8508" xr2:uid="{C4DA45A7-D938-0747-83AB-FECF0C752D43}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C4DA45A7-D938-0747-83AB-FECF0C752D43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -368,9 +365,6 @@
     <t>stuContReportUpd</t>
   </si>
   <si>
-    <t>stuContractRepDel</t>
-  </si>
-  <si>
     <t>stuPracReportRead</t>
   </si>
   <si>
@@ -606,6 +600,9 @@
   </si>
   <si>
     <t>headRespAdd</t>
+  </si>
+  <si>
+    <t>stuContReportDel</t>
   </si>
 </sst>
 </file>
@@ -980,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5B7B27-9C0C-C145-A167-201B91E0FE9A}">
   <dimension ref="A1:AT51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1005,7 +1002,7 @@
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y1" t="s">
         <v>0</v>
@@ -1039,13 +1036,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" t="s">
         <v>128</v>
-      </c>
-      <c r="G5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" t="s">
-        <v>129</v>
       </c>
       <c r="K5" t="s">
         <v>63</v>
@@ -1054,7 +1051,7 @@
         <v>72</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q5" t="s">
         <v>4</v>
@@ -1063,7 +1060,7 @@
         <v>72</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y5" t="s">
         <v>11</v>
@@ -1072,7 +1069,7 @@
         <v>72</v>
       </c>
       <c r="AD5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG5" t="s">
         <v>15</v>
@@ -1081,7 +1078,7 @@
         <v>72</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AO5" t="s">
         <v>21</v>
@@ -1090,7 +1087,7 @@
         <v>72</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.3">
@@ -1113,7 +1110,7 @@
         <v>72</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Z7" t="s">
         <v>2</v>
@@ -1122,7 +1119,7 @@
         <v>73</v>
       </c>
       <c r="AD7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AH7" t="s">
         <v>54</v>
@@ -1131,7 +1128,7 @@
         <v>73</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AP7" t="s">
         <v>45</v>
@@ -1140,7 +1137,7 @@
         <v>73</v>
       </c>
       <c r="AT7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.3">
@@ -1163,7 +1160,7 @@
         <v>72</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z9" t="s">
         <v>39</v>
@@ -1172,7 +1169,7 @@
         <v>74</v>
       </c>
       <c r="AD9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AH9" t="s">
         <v>37</v>
@@ -1181,7 +1178,7 @@
         <v>74</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AP9" t="s">
         <v>46</v>
@@ -1190,7 +1187,7 @@
         <v>74</v>
       </c>
       <c r="AT9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.3">
@@ -1210,7 +1207,7 @@
         <v>72</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z11" t="s">
         <v>86</v>
@@ -1219,7 +1216,7 @@
         <v>80</v>
       </c>
       <c r="AD11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AH11" t="s">
         <v>91</v>
@@ -1228,7 +1225,7 @@
         <v>80</v>
       </c>
       <c r="AL11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AO11" t="s">
         <v>24</v>
@@ -1237,7 +1234,7 @@
         <v>72</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.3">
@@ -1247,7 +1244,7 @@
       <c r="M13" t="s">
         <v>80</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="2" t="s">
         <v>98</v>
       </c>
       <c r="Q13" t="s">
@@ -1257,7 +1254,7 @@
         <v>72</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Y13" t="s">
         <v>32</v>
@@ -1266,7 +1263,7 @@
         <v>72</v>
       </c>
       <c r="AD13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AG13" t="s">
         <v>16</v>
@@ -1275,7 +1272,7 @@
         <v>72</v>
       </c>
       <c r="AL13" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AP13" t="s">
         <v>47</v>
@@ -1284,7 +1281,7 @@
         <v>73</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.3">
@@ -1304,7 +1301,7 @@
         <v>73</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Z15" t="s">
         <v>31</v>
@@ -1313,7 +1310,7 @@
         <v>74</v>
       </c>
       <c r="AD15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AH15" t="s">
         <v>55</v>
@@ -1322,7 +1319,7 @@
         <v>73</v>
       </c>
       <c r="AL15" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AP15" t="s">
         <v>27</v>
@@ -1331,7 +1328,7 @@
         <v>74</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="11:46" x14ac:dyDescent="0.3">
@@ -1351,7 +1348,7 @@
         <v>74</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y17" t="s">
         <v>12</v>
@@ -1360,7 +1357,7 @@
         <v>72</v>
       </c>
       <c r="AD17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AH17" t="s">
         <v>56</v>
@@ -1369,7 +1366,7 @@
         <v>74</v>
       </c>
       <c r="AL17" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AO17" t="s">
         <v>22</v>
@@ -1378,7 +1375,7 @@
         <v>72</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="11:46" x14ac:dyDescent="0.3">
@@ -1388,7 +1385,7 @@
       <c r="M19" t="s">
         <v>80</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19" s="2" t="s">
         <v>101</v>
       </c>
       <c r="R19" t="s">
@@ -1398,7 +1395,7 @@
         <v>80</v>
       </c>
       <c r="V19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Z19" t="s">
         <v>33</v>
@@ -1407,7 +1404,7 @@
         <v>73</v>
       </c>
       <c r="AD19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AH19" t="s">
         <v>92</v>
@@ -1416,7 +1413,7 @@
         <v>80</v>
       </c>
       <c r="AL19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AP19" t="s">
         <v>48</v>
@@ -1425,7 +1422,7 @@
         <v>74</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="11:46" x14ac:dyDescent="0.3">
@@ -1445,7 +1442,7 @@
         <v>72</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Z21" t="s">
         <v>34</v>
@@ -1454,7 +1451,7 @@
         <v>74</v>
       </c>
       <c r="AD21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AG21" t="s">
         <v>17</v>
@@ -1463,7 +1460,7 @@
         <v>72</v>
       </c>
       <c r="AL21" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AO21" t="s">
         <v>23</v>
@@ -1472,7 +1469,7 @@
         <v>72</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="11:46" x14ac:dyDescent="0.3">
@@ -1492,16 +1489,16 @@
         <v>72</v>
       </c>
       <c r="V23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z23" t="s">
         <v>126</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>127</v>
       </c>
       <c r="AC23" t="s">
         <v>80</v>
       </c>
       <c r="AD23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AH23" t="s">
         <v>57</v>
@@ -1510,7 +1507,7 @@
         <v>73</v>
       </c>
       <c r="AL23" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AP23" t="s">
         <v>47</v>
@@ -1519,7 +1516,7 @@
         <v>73</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="11:46" x14ac:dyDescent="0.3">
@@ -1539,7 +1536,7 @@
         <v>72</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Y25" t="s">
         <v>13</v>
@@ -1548,7 +1545,7 @@
         <v>72</v>
       </c>
       <c r="AD25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AH25" t="s">
         <v>58</v>
@@ -1557,7 +1554,7 @@
         <v>74</v>
       </c>
       <c r="AL25" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AP25" t="s">
         <v>27</v>
@@ -1566,7 +1563,7 @@
         <v>74</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="11:46" x14ac:dyDescent="0.3">
@@ -1586,7 +1583,7 @@
         <v>74</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z27" t="s">
         <v>51</v>
@@ -1595,7 +1592,7 @@
         <v>73</v>
       </c>
       <c r="AD27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AH27" t="s">
         <v>93</v>
@@ -1604,16 +1601,16 @@
         <v>80</v>
       </c>
       <c r="AL27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AP27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AS27" t="s">
         <v>80</v>
       </c>
       <c r="AT27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="11:46" x14ac:dyDescent="0.3">
@@ -1627,13 +1624,13 @@
         <v>105</v>
       </c>
       <c r="R29" t="s">
+        <v>187</v>
+      </c>
+      <c r="U29" t="s">
+        <v>74</v>
+      </c>
+      <c r="V29" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="U29" t="s">
-        <v>74</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="Z29" t="s">
         <v>52</v>
@@ -1642,7 +1639,7 @@
         <v>74</v>
       </c>
       <c r="AD29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AG29" t="s">
         <v>18</v>
@@ -1651,7 +1648,7 @@
         <v>72</v>
       </c>
       <c r="AL29" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="11:46" x14ac:dyDescent="0.3">
@@ -1661,7 +1658,7 @@
       <c r="M31" t="s">
         <v>80</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N31" s="2" t="s">
         <v>106</v>
       </c>
       <c r="Z31" t="s">
@@ -1671,7 +1668,7 @@
         <v>80</v>
       </c>
       <c r="AD31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH31" t="s">
         <v>59</v>
@@ -1680,7 +1677,7 @@
         <v>74</v>
       </c>
       <c r="AL31" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="11:38" x14ac:dyDescent="0.3">
@@ -1700,7 +1697,7 @@
         <v>72</v>
       </c>
       <c r="AD33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AG33" t="s">
         <v>19</v>
@@ -1709,7 +1706,7 @@
         <v>72</v>
       </c>
       <c r="AL33" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="11:38" x14ac:dyDescent="0.3">
@@ -1729,7 +1726,7 @@
         <v>74</v>
       </c>
       <c r="AD35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AH35" t="s">
         <v>60</v>
@@ -1738,7 +1735,7 @@
         <v>73</v>
       </c>
       <c r="AL35" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="11:38" x14ac:dyDescent="0.3">
@@ -1758,7 +1755,7 @@
         <v>72</v>
       </c>
       <c r="AD37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AH37" t="s">
         <v>61</v>
@@ -1767,7 +1764,7 @@
         <v>74</v>
       </c>
       <c r="AL37" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="11:38" x14ac:dyDescent="0.3">
@@ -1777,8 +1774,8 @@
       <c r="M39" t="s">
         <v>80</v>
       </c>
-      <c r="N39" t="s">
-        <v>110</v>
+      <c r="N39" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="Z39" t="s">
         <v>35</v>
@@ -1787,7 +1784,7 @@
         <v>73</v>
       </c>
       <c r="AD39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH39" t="s">
         <v>94</v>
@@ -1796,18 +1793,18 @@
         <v>80</v>
       </c>
       <c r="AL39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="11:38" x14ac:dyDescent="0.3">
       <c r="K41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M41" t="s">
         <v>72</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y41" t="s">
         <v>38</v>
@@ -1816,7 +1813,7 @@
         <v>72</v>
       </c>
       <c r="AD41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AG41" t="s">
         <v>20</v>
@@ -1825,7 +1822,7 @@
         <v>72</v>
       </c>
       <c r="AL41" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="11:38" x14ac:dyDescent="0.3">
@@ -1836,7 +1833,7 @@
         <v>72</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Z43" t="s">
         <v>88</v>
@@ -1845,7 +1842,7 @@
         <v>73</v>
       </c>
       <c r="AD43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="11:38" x14ac:dyDescent="0.3">
@@ -1856,7 +1853,7 @@
         <v>73</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z45" t="s">
         <v>89</v>
@@ -1865,7 +1862,7 @@
         <v>74</v>
       </c>
       <c r="AD45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="11:38" x14ac:dyDescent="0.3">
@@ -1876,7 +1873,7 @@
         <v>74</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Z47" t="s">
         <v>90</v>
@@ -1885,7 +1882,7 @@
         <v>80</v>
       </c>
       <c r="AD47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="11:14" x14ac:dyDescent="0.3">
@@ -1895,19 +1892,19 @@
       <c r="M49" t="s">
         <v>80</v>
       </c>
-      <c r="N49" t="s">
-        <v>115</v>
+      <c r="N49" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="11:14" x14ac:dyDescent="0.3">
       <c r="K51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M51" t="s">
         <v>72</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Architektura/website_architecture_list.xlsx
+++ b/Architektura/website_architecture_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakub\PhpstormProjects\Project_SI\Architektura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB891E6-E64B-45FB-AE14-DA59A9434799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218BA9B0-A122-4EB8-8D28-E85CF7CF6DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C4DA45A7-D938-0747-83AB-FECF0C752D43}"/>
   </bookViews>
@@ -618,7 +618,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -643,6 +643,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -656,11 +668,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -977,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5B7B27-9C0C-C145-A167-201B91E0FE9A}">
   <dimension ref="A1:AT51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N49" sqref="N49"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21:N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1150,7 +1164,7 @@
       <c r="M9" t="s">
         <v>73</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="4" t="s">
         <v>96</v>
       </c>
       <c r="Q9" t="s">
@@ -1197,7 +1211,7 @@
       <c r="M11" t="s">
         <v>74</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="N11" s="4" t="s">
         <v>97</v>
       </c>
       <c r="Q11" t="s">
@@ -1291,7 +1305,7 @@
       <c r="M15" t="s">
         <v>73</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="N15" s="4" t="s">
         <v>99</v>
       </c>
       <c r="R15" t="s">
@@ -1338,7 +1352,7 @@
       <c r="M17" t="s">
         <v>74</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="N17" s="4" t="s">
         <v>100</v>
       </c>
       <c r="R17" t="s">
@@ -1426,13 +1440,14 @@
       </c>
     </row>
     <row r="21" spans="11:46" x14ac:dyDescent="0.3">
-      <c r="K21" t="s">
+      <c r="K21" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="M21" t="s">
-        <v>72</v>
-      </c>
-      <c r="N21" s="2" t="s">
+      <c r="L21" s="5"/>
+      <c r="M21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="N21" s="5" t="s">
         <v>102</v>
       </c>
       <c r="Q21" t="s">
@@ -1472,14 +1487,21 @@
         <v>178</v>
       </c>
     </row>
+    <row r="22" spans="11:46" x14ac:dyDescent="0.3">
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+    </row>
     <row r="23" spans="11:46" x14ac:dyDescent="0.3">
-      <c r="L23" t="s">
+      <c r="K23" s="5"/>
+      <c r="L23" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="M23" t="s">
-        <v>74</v>
-      </c>
-      <c r="N23" s="2" t="s">
+      <c r="M23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N23" s="5" t="s">
         <v>103</v>
       </c>
       <c r="Q23" t="s">
@@ -1519,14 +1541,21 @@
         <v>179</v>
       </c>
     </row>
+    <row r="24" spans="11:46" x14ac:dyDescent="0.3">
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+    </row>
     <row r="25" spans="11:46" x14ac:dyDescent="0.3">
-      <c r="K25" t="s">
+      <c r="K25" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="M25" t="s">
-        <v>72</v>
-      </c>
-      <c r="N25" s="2" t="s">
+      <c r="L25" s="5"/>
+      <c r="M25" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="N25" s="5" t="s">
         <v>102</v>
       </c>
       <c r="Q25" t="s">
@@ -1566,14 +1595,21 @@
         <v>180</v>
       </c>
     </row>
+    <row r="26" spans="11:46" x14ac:dyDescent="0.3">
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+    </row>
     <row r="27" spans="11:46" x14ac:dyDescent="0.3">
-      <c r="L27" t="s">
+      <c r="K27" s="5"/>
+      <c r="L27" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="N27" s="5" t="s">
         <v>104</v>
       </c>
       <c r="R27" t="s">
@@ -1613,14 +1649,21 @@
         <v>181</v>
       </c>
     </row>
+    <row r="28" spans="11:46" x14ac:dyDescent="0.3">
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+    </row>
     <row r="29" spans="11:46" x14ac:dyDescent="0.3">
-      <c r="L29" t="s">
+      <c r="K29" s="5"/>
+      <c r="L29" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M29" t="s">
-        <v>74</v>
-      </c>
-      <c r="N29" s="2" t="s">
+      <c r="M29" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N29" s="5" t="s">
         <v>105</v>
       </c>
       <c r="R29" t="s">
@@ -1651,14 +1694,21 @@
         <v>163</v>
       </c>
     </row>
+    <row r="30" spans="11:46" x14ac:dyDescent="0.3">
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+    </row>
     <row r="31" spans="11:46" x14ac:dyDescent="0.3">
-      <c r="L31" t="s">
+      <c r="K31" s="5"/>
+      <c r="L31" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="N31" s="2" t="s">
+      <c r="N31" s="5" t="s">
         <v>106</v>
       </c>
       <c r="Z31" t="s">
@@ -1716,7 +1766,7 @@
       <c r="M35" t="s">
         <v>73</v>
       </c>
-      <c r="N35" s="2" t="s">
+      <c r="N35" s="4" t="s">
         <v>108</v>
       </c>
       <c r="Z35" t="s">
@@ -1745,7 +1795,7 @@
       <c r="M37" t="s">
         <v>74</v>
       </c>
-      <c r="N37" s="2" t="s">
+      <c r="N37" s="4" t="s">
         <v>109</v>
       </c>
       <c r="Y37" t="s">
@@ -1852,7 +1902,7 @@
       <c r="M45" t="s">
         <v>73</v>
       </c>
-      <c r="N45" s="2" t="s">
+      <c r="N45" s="4" t="s">
         <v>113</v>
       </c>
       <c r="Z45" t="s">
@@ -1872,7 +1922,7 @@
       <c r="M47" t="s">
         <v>74</v>
       </c>
-      <c r="N47" s="2" t="s">
+      <c r="N47" s="4" t="s">
         <v>112</v>
       </c>
       <c r="Z47" t="s">

--- a/Architektura/website_architecture_list.xlsx
+++ b/Architektura/website_architecture_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakub\PhpstormProjects\Project_SI\Architektura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218BA9B0-A122-4EB8-8D28-E85CF7CF6DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98B61E6-DDC9-4FA8-BEEE-7B2C5CBC2FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C4DA45A7-D938-0747-83AB-FECF0C752D43}"/>
   </bookViews>
@@ -668,13 +668,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -989,32 +993,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5B7B27-9C0C-C145-A167-201B91E0FE9A}">
-  <dimension ref="A1:AT51"/>
+  <dimension ref="A1:AR51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21:N24"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AQ1" sqref="AQ1:AQ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="5.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="26.19921875" customWidth="1"/>
+    <col min="11" max="11" width="32.796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.69921875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.19921875" customWidth="1"/>
+    <col min="20" max="20" width="12.796875" customWidth="1"/>
     <col min="21" max="21" width="2.5" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="3.5" customWidth="1"/>
-    <col min="33" max="33" width="5.19921875" customWidth="1"/>
-    <col min="37" max="37" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.69921875" customWidth="1"/>
-    <col min="41" max="41" width="8.5" customWidth="1"/>
-    <col min="45" max="45" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.796875" customWidth="1"/>
+    <col min="27" max="27" width="18.296875" customWidth="1"/>
+    <col min="28" max="28" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3.5" customWidth="1"/>
+    <col min="32" max="32" width="5.19921875" customWidth="1"/>
+    <col min="35" max="35" width="11.19921875" customWidth="1"/>
+    <col min="36" max="36" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.69921875" customWidth="1"/>
+    <col min="40" max="40" width="10" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.796875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>183</v>
       </c>
@@ -1022,30 +1041,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>62</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="6" t="s">
         <v>41</v>
       </c>
+      <c r="K3" s="6"/>
       <c r="P3" t="s">
         <v>40</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AE3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AM3" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>1</v>
       </c>
@@ -1058,53 +1087,57 @@
       <c r="H5" t="s">
         <v>128</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="6" t="s">
         <v>63</v>
       </c>
+      <c r="L5" s="6"/>
       <c r="M5" t="s">
         <v>72</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="R5" s="6"/>
       <c r="U5" t="s">
         <v>72</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Y5" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="Z5" s="6"/>
+      <c r="AB5" t="s">
+        <v>72</v>
+      </c>
       <c r="AC5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD5" t="s">
         <v>132</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AF5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AK5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL5" s="1" t="s">
+      <c r="AG5" s="6"/>
+      <c r="AJ5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK5" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AN5" t="s">
         <v>21</v>
       </c>
-      <c r="AS5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AT5" s="1" t="s">
+      <c r="AQ5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR5" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>21</v>
       </c>
@@ -1117,44 +1150,49 @@
       <c r="N7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
       <c r="U7" t="s">
         <v>72</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="Z7" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="AA7" s="6"/>
+      <c r="AB7" t="s">
+        <v>73</v>
+      </c>
       <c r="AC7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH7" s="6"/>
+      <c r="AJ7" t="s">
         <v>73</v>
       </c>
-      <c r="AD7" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK7" t="s">
+      <c r="AK7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ7" t="s">
         <v>73</v>
       </c>
-      <c r="AL7" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>73</v>
-      </c>
-      <c r="AT7" t="s">
+      <c r="AR7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>71</v>
       </c>
@@ -1167,44 +1205,47 @@
       <c r="N9" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="R9" s="6"/>
       <c r="U9" t="s">
         <v>72</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Z9" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="AA9" s="6"/>
+      <c r="AB9" t="s">
+        <v>74</v>
+      </c>
       <c r="AC9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD9" t="s">
         <v>133</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AG9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AK9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL9" s="1" t="s">
+      <c r="AH9" s="6"/>
+      <c r="AJ9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK9" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="AO9" t="s">
         <v>46</v>
       </c>
-      <c r="AS9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT9" t="s">
+      <c r="AQ9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="L11" t="s">
         <v>64</v>
       </c>
@@ -1214,44 +1255,50 @@
       <c r="N11" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
       <c r="U11" t="s">
         <v>72</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Z11" s="6" t="s">
         <v>86</v>
       </c>
+      <c r="AA11" s="6"/>
+      <c r="AB11" t="s">
+        <v>80</v>
+      </c>
       <c r="AC11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG11" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH11" s="6"/>
+      <c r="AJ11" t="s">
         <v>80</v>
       </c>
-      <c r="AD11" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>91</v>
-      </c>
       <c r="AK11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL11" t="s">
         <v>154</v>
       </c>
-      <c r="AO11" t="s">
+      <c r="AN11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AS11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AT11" s="1" t="s">
+      <c r="AO11" s="6"/>
+      <c r="AP11" s="6"/>
+      <c r="AQ11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR11" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
       <c r="L13" t="s">
         <v>79</v>
       </c>
@@ -1261,9 +1308,10 @@
       <c r="N13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="R13" s="6"/>
       <c r="U13" t="s">
         <v>72</v>
       </c>
@@ -1273,32 +1321,33 @@
       <c r="Y13" t="s">
         <v>32</v>
       </c>
+      <c r="AB13" t="s">
+        <v>72</v>
+      </c>
       <c r="AC13" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD13" t="s">
         <v>135</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AF13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AK13" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL13" s="3" t="s">
+      <c r="AG13" s="6"/>
+      <c r="AJ13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK13" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="AP13" t="s">
+      <c r="AO13" t="s">
         <v>47</v>
       </c>
-      <c r="AS13" t="s">
+      <c r="AQ13" t="s">
         <v>73</v>
       </c>
-      <c r="AT13" s="1" t="s">
+      <c r="AR13" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
       <c r="L15" t="s">
         <v>66</v>
       </c>
@@ -1308,44 +1357,48 @@
       <c r="N15" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R15" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
       <c r="U15" t="s">
         <v>73</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Z15" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="AA15" s="6"/>
+      <c r="AB15" t="s">
+        <v>74</v>
+      </c>
       <c r="AC15" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD15" t="s">
         <v>136</v>
       </c>
-      <c r="AH15" t="s">
+      <c r="AG15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AH15" s="6"/>
+      <c r="AJ15" t="s">
         <v>73</v>
       </c>
-      <c r="AL15" s="3" t="s">
+      <c r="AK15" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="AP15" t="s">
+      <c r="AO15" t="s">
         <v>27</v>
       </c>
-      <c r="AS15" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT15" s="1" t="s">
+      <c r="AQ15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR15" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="11:46" x14ac:dyDescent="0.3">
+    <row r="17" spans="11:44" x14ac:dyDescent="0.3">
       <c r="L17" t="s">
         <v>67</v>
       </c>
@@ -1355,44 +1408,49 @@
       <c r="N17" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="R17" t="s">
+      <c r="R17" s="7" t="s">
         <v>50</v>
       </c>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
       <c r="U17" t="s">
         <v>74</v>
       </c>
       <c r="V17" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Y17" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="Z17" s="6"/>
+      <c r="AB17" t="s">
+        <v>72</v>
+      </c>
       <c r="AC17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD17" t="s">
         <v>137</v>
       </c>
-      <c r="AH17" t="s">
+      <c r="AG17" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AK17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL17" s="3" t="s">
+      <c r="AH17" s="6"/>
+      <c r="AJ17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK17" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="AO17" t="s">
+      <c r="AN17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AS17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AT17" s="1" t="s">
+      <c r="AO17" s="6"/>
+      <c r="AQ17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR17" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="11:46" x14ac:dyDescent="0.3">
+    <row r="19" spans="11:44" x14ac:dyDescent="0.3">
       <c r="L19" t="s">
         <v>81</v>
       </c>
@@ -1402,44 +1460,49 @@
       <c r="N19" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="R19" t="s">
+      <c r="R19" s="7" t="s">
         <v>85</v>
       </c>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
       <c r="U19" t="s">
         <v>80</v>
       </c>
       <c r="V19" t="s">
         <v>123</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Z19" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="AA19" s="6"/>
+      <c r="AB19" t="s">
+        <v>73</v>
+      </c>
       <c r="AC19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD19" t="s">
         <v>138</v>
       </c>
-      <c r="AH19" t="s">
+      <c r="AG19" s="6" t="s">
         <v>92</v>
       </c>
+      <c r="AH19" s="6"/>
+      <c r="AJ19" t="s">
+        <v>80</v>
+      </c>
       <c r="AK19" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL19" t="s">
         <v>158</v>
       </c>
-      <c r="AP19" t="s">
+      <c r="AO19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AS19" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT19" s="1" t="s">
+      <c r="AP19" s="6"/>
+      <c r="AQ19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR19" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="11:46" x14ac:dyDescent="0.3">
+    <row r="21" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K21" s="5" t="s">
         <v>76</v>
       </c>
@@ -1459,41 +1522,45 @@
       <c r="V21" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Z21" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="AA21" s="6"/>
+      <c r="AB21" t="s">
+        <v>74</v>
+      </c>
       <c r="AC21" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD21" t="s">
         <v>139</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AF21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AK21" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL21" s="1" t="s">
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AJ21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK21" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AO21" t="s">
+      <c r="AN21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AS21" t="s">
-        <v>72</v>
-      </c>
-      <c r="AT21" s="1" t="s">
+      <c r="AO21" s="6"/>
+      <c r="AQ21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR21" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="11:46" x14ac:dyDescent="0.3">
+    <row r="22" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="11:46" x14ac:dyDescent="0.3">
+    <row r="23" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K23" s="5"/>
       <c r="L23" s="5" t="s">
         <v>78</v>
@@ -1504,50 +1571,54 @@
       <c r="N23" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="Q23" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="R23" s="6"/>
       <c r="U23" t="s">
         <v>72</v>
       </c>
       <c r="V23" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Z23" s="6" t="s">
         <v>126</v>
       </c>
+      <c r="AA23" s="6"/>
+      <c r="AB23" t="s">
+        <v>80</v>
+      </c>
       <c r="AC23" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD23" t="s">
         <v>140</v>
       </c>
-      <c r="AH23" t="s">
+      <c r="AG23" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AK23" t="s">
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" t="s">
         <v>73</v>
       </c>
-      <c r="AL23" s="1" t="s">
+      <c r="AK23" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AP23" t="s">
+      <c r="AO23" t="s">
         <v>47</v>
       </c>
-      <c r="AS23" t="s">
+      <c r="AQ23" t="s">
         <v>73</v>
       </c>
-      <c r="AT23" s="1" t="s">
+      <c r="AR23" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="11:46" x14ac:dyDescent="0.3">
+    <row r="24" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
     </row>
-    <row r="25" spans="11:46" x14ac:dyDescent="0.3">
+    <row r="25" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K25" s="5" t="s">
         <v>75</v>
       </c>
@@ -1558,50 +1629,55 @@
       <c r="N25" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="Q25" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
       <c r="U25" t="s">
         <v>72</v>
       </c>
       <c r="V25" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Y25" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="Z25" s="6"/>
+      <c r="AB25" t="s">
+        <v>72</v>
+      </c>
       <c r="AC25" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD25" t="s">
         <v>141</v>
       </c>
-      <c r="AH25" t="s">
+      <c r="AG25" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AK25" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL25" s="1" t="s">
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK25" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AP25" t="s">
+      <c r="AO25" t="s">
         <v>27</v>
       </c>
-      <c r="AS25" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT25" s="1" t="s">
+      <c r="AQ25" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR25" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="11:46" x14ac:dyDescent="0.3">
+    <row r="26" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
     </row>
-    <row r="27" spans="11:46" x14ac:dyDescent="0.3">
+    <row r="27" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K27" s="5"/>
       <c r="L27" s="5" t="s">
         <v>77</v>
@@ -1612,50 +1688,55 @@
       <c r="N27" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="R27" t="s">
+      <c r="R27" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
       <c r="U27" t="s">
         <v>74</v>
       </c>
       <c r="V27" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Z27" s="6" t="s">
         <v>51</v>
       </c>
+      <c r="AA27" s="6"/>
+      <c r="AB27" t="s">
+        <v>73</v>
+      </c>
       <c r="AC27" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD27" t="s">
         <v>142</v>
       </c>
-      <c r="AH27" t="s">
+      <c r="AG27" s="6" t="s">
         <v>93</v>
       </c>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" t="s">
+        <v>80</v>
+      </c>
       <c r="AK27" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>170</v>
+      </c>
+      <c r="AQ27" t="s">
         <v>80</v>
       </c>
-      <c r="AL27" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>80</v>
-      </c>
-      <c r="AT27" t="s">
+      <c r="AR27" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="11:46" x14ac:dyDescent="0.3">
+    <row r="28" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
     </row>
-    <row r="29" spans="11:46" x14ac:dyDescent="0.3">
+    <row r="29" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K29" s="5"/>
       <c r="L29" s="5" t="s">
         <v>68</v>
@@ -1666,41 +1747,46 @@
       <c r="N29" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="R29" t="s">
+      <c r="R29" s="6" t="s">
         <v>187</v>
       </c>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
       <c r="U29" t="s">
         <v>74</v>
       </c>
       <c r="V29" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Z29" s="6" t="s">
         <v>52</v>
       </c>
+      <c r="AA29" s="6"/>
+      <c r="AB29" t="s">
+        <v>74</v>
+      </c>
       <c r="AC29" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD29" t="s">
         <v>143</v>
       </c>
-      <c r="AG29" t="s">
+      <c r="AF29" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AK29" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL29" s="1" t="s">
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="6"/>
+      <c r="AJ29" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK29" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="11:46" x14ac:dyDescent="0.3">
+    <row r="30" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
     </row>
-    <row r="31" spans="11:46" x14ac:dyDescent="0.3">
+    <row r="31" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K31" s="5"/>
       <c r="L31" s="5" t="s">
         <v>82</v>
@@ -1711,26 +1797,29 @@
       <c r="N31" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Z31" s="6" t="s">
         <v>87</v>
       </c>
+      <c r="AA31" s="6"/>
+      <c r="AB31" t="s">
+        <v>80</v>
+      </c>
       <c r="AC31" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD31" t="s">
         <v>144</v>
       </c>
-      <c r="AH31" t="s">
+      <c r="AG31" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="AK31" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL31" s="1" t="s">
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="6"/>
+      <c r="AJ31" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK31" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="11:38" x14ac:dyDescent="0.3">
+    <row r="33" spans="11:37" x14ac:dyDescent="0.3">
       <c r="K33" t="s">
         <v>26</v>
       </c>
@@ -1740,26 +1829,28 @@
       <c r="N33" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Y33" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="Z33" s="6"/>
+      <c r="AB33" t="s">
+        <v>72</v>
+      </c>
       <c r="AC33" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD33" t="s">
         <v>135</v>
       </c>
-      <c r="AG33" t="s">
+      <c r="AF33" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AK33" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL33" s="1" t="s">
+      <c r="AG33" s="6"/>
+      <c r="AJ33" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK33" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="35" spans="11:38" x14ac:dyDescent="0.3">
+    <row r="35" spans="11:37" x14ac:dyDescent="0.3">
       <c r="L35" t="s">
         <v>69</v>
       </c>
@@ -1769,26 +1860,28 @@
       <c r="N35" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Z35" s="6" t="s">
         <v>53</v>
       </c>
+      <c r="AA35" s="6"/>
+      <c r="AB35" t="s">
+        <v>74</v>
+      </c>
       <c r="AC35" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD35" t="s">
         <v>136</v>
       </c>
-      <c r="AH35" t="s">
+      <c r="AG35" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AK35" t="s">
+      <c r="AH35" s="6"/>
+      <c r="AJ35" t="s">
         <v>73</v>
       </c>
-      <c r="AL35" s="1" t="s">
+      <c r="AK35" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="11:38" x14ac:dyDescent="0.3">
+    <row r="37" spans="11:37" x14ac:dyDescent="0.3">
       <c r="L37" t="s">
         <v>70</v>
       </c>
@@ -1798,26 +1891,28 @@
       <c r="N37" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Y37" s="6" t="s">
         <v>36</v>
       </c>
+      <c r="Z37" s="6"/>
+      <c r="AB37" t="s">
+        <v>72</v>
+      </c>
       <c r="AC37" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD37" t="s">
         <v>145</v>
       </c>
-      <c r="AH37" t="s">
+      <c r="AG37" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AK37" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL37" s="1" t="s">
+      <c r="AH37" s="6"/>
+      <c r="AJ37" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK37" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="39" spans="11:38" x14ac:dyDescent="0.3">
+    <row r="39" spans="11:37" x14ac:dyDescent="0.3">
       <c r="L39" t="s">
         <v>83</v>
       </c>
@@ -1827,26 +1922,28 @@
       <c r="N39" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Z39" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="AA39" s="6"/>
+      <c r="AB39" t="s">
+        <v>73</v>
+      </c>
       <c r="AC39" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD39" t="s">
         <v>146</v>
       </c>
-      <c r="AH39" t="s">
+      <c r="AG39" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="AH39" s="6"/>
+      <c r="AJ39" t="s">
+        <v>80</v>
+      </c>
       <c r="AK39" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL39" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="41" spans="11:38" x14ac:dyDescent="0.3">
+    <row r="41" spans="11:37" x14ac:dyDescent="0.3">
       <c r="K41" t="s">
         <v>129</v>
       </c>
@@ -1856,26 +1953,29 @@
       <c r="N41" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Y41" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="Z41" s="6"/>
+      <c r="AB41" t="s">
+        <v>72</v>
+      </c>
       <c r="AC41" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD41" t="s">
         <v>147</v>
       </c>
-      <c r="AG41" t="s">
+      <c r="AF41" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AK41" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL41" s="1" t="s">
+      <c r="AG41" s="6"/>
+      <c r="AH41" s="6"/>
+      <c r="AJ41" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK41" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="43" spans="11:38" x14ac:dyDescent="0.3">
+    <row r="43" spans="11:37" x14ac:dyDescent="0.3">
       <c r="K43" t="s">
         <v>28</v>
       </c>
@@ -1885,17 +1985,18 @@
       <c r="N43" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Z43" s="6" t="s">
         <v>88</v>
       </c>
+      <c r="AA43" s="6"/>
+      <c r="AB43" t="s">
+        <v>73</v>
+      </c>
       <c r="AC43" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD43" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="11:38" x14ac:dyDescent="0.3">
+    <row r="45" spans="11:37" x14ac:dyDescent="0.3">
       <c r="L45" t="s">
         <v>3</v>
       </c>
@@ -1905,17 +2006,18 @@
       <c r="N45" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Z45" s="6" t="s">
         <v>89</v>
       </c>
+      <c r="AA45" s="6"/>
+      <c r="AB45" t="s">
+        <v>74</v>
+      </c>
       <c r="AC45" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD45" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="11:38" x14ac:dyDescent="0.3">
+    <row r="47" spans="11:37" x14ac:dyDescent="0.3">
       <c r="L47" t="s">
         <v>27</v>
       </c>
@@ -1925,13 +2027,14 @@
       <c r="N47" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Z47" s="6" t="s">
         <v>90</v>
       </c>
+      <c r="AA47" s="6"/>
+      <c r="AB47" t="s">
+        <v>80</v>
+      </c>
       <c r="AC47" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD47" t="s">
         <v>150</v>
       </c>
     </row>
@@ -1958,6 +2061,69 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="61">
+    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="AF41:AH41"/>
+    <mergeCell ref="AN11:AP11"/>
+    <mergeCell ref="AN17:AO17"/>
+    <mergeCell ref="AN21:AO21"/>
+    <mergeCell ref="AO19:AP19"/>
+    <mergeCell ref="AG27:AI27"/>
+    <mergeCell ref="AF29:AH29"/>
+    <mergeCell ref="AG31:AI31"/>
+    <mergeCell ref="AF33:AG33"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AG37:AH37"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AF21:AH21"/>
+    <mergeCell ref="AG23:AI23"/>
+    <mergeCell ref="AG25:AI25"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="Z43:AA43"/>
+    <mergeCell ref="Z45:AA45"/>
+    <mergeCell ref="Z47:AA47"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AF13:AG13"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="Y37:Z37"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="AM3:AP3"/>
+    <mergeCell ref="AE3:AH3"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="Q5:R5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/Architektura/website_architecture_list.xlsx
+++ b/Architektura/website_architecture_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakub\PhpstormProjects\Project_SI\Architektura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98B61E6-DDC9-4FA8-BEEE-7B2C5CBC2FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F074A2BC-AAF4-434B-AC00-CC433CC62B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C4DA45A7-D938-0747-83AB-FECF0C752D43}"/>
   </bookViews>
@@ -995,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5B7B27-9C0C-C145-A167-201B91E0FE9A}">
   <dimension ref="A1:AR51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AQ1" sqref="AQ1:AQ1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2062,6 +2062,51 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="AM3:AP3"/>
+    <mergeCell ref="AE3:AH3"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="Z47:AA47"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AF13:AG13"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="Y37:Z37"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="AG23:AI23"/>
+    <mergeCell ref="AG25:AI25"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="Z43:AA43"/>
+    <mergeCell ref="Z45:AA45"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Z27:AA27"/>
     <mergeCell ref="AG39:AH39"/>
     <mergeCell ref="AF41:AH41"/>
     <mergeCell ref="AN11:AP11"/>
@@ -2078,51 +2123,6 @@
     <mergeCell ref="AG17:AH17"/>
     <mergeCell ref="AG19:AH19"/>
     <mergeCell ref="AF21:AH21"/>
-    <mergeCell ref="AG23:AI23"/>
-    <mergeCell ref="AG25:AI25"/>
-    <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="Z43:AA43"/>
-    <mergeCell ref="Z45:AA45"/>
-    <mergeCell ref="Z47:AA47"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AF13:AG13"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="Y37:Z37"/>
-    <mergeCell ref="Z39:AA39"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="AM3:AP3"/>
-    <mergeCell ref="AE3:AH3"/>
-    <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="Q5:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Architektura/website_architecture_list.xlsx
+++ b/Architektura/website_architecture_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakub\PhpstormProjects\Project_SI\Architektura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F074A2BC-AAF4-434B-AC00-CC433CC62B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800D451D-F1B1-496D-929B-08F7CA5C84EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C4DA45A7-D938-0747-83AB-FECF0C752D43}"/>
   </bookViews>
@@ -618,7 +618,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -645,12 +645,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -668,17 +662,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -996,7 +989,7 @@
   <dimension ref="A1:AR51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1202,7 +1195,7 @@
       <c r="M9" t="s">
         <v>73</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="2" t="s">
         <v>96</v>
       </c>
       <c r="Q9" s="6" t="s">
@@ -1252,7 +1245,7 @@
       <c r="M11" t="s">
         <v>74</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="N11" s="2" t="s">
         <v>97</v>
       </c>
       <c r="Q11" s="6" t="s">
@@ -1354,7 +1347,7 @@
       <c r="M15" t="s">
         <v>73</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="N15" s="2" t="s">
         <v>99</v>
       </c>
       <c r="R15" s="6" t="s">
@@ -1405,14 +1398,14 @@
       <c r="M17" t="s">
         <v>74</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="N17" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="R17" s="7" t="s">
+      <c r="R17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
       <c r="U17" t="s">
         <v>74</v>
       </c>
@@ -1460,11 +1453,11 @@
       <c r="N19" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="R19" s="7" t="s">
+      <c r="R19" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
       <c r="U19" t="s">
         <v>80</v>
       </c>
@@ -1503,14 +1496,14 @@
       </c>
     </row>
     <row r="21" spans="11:44" x14ac:dyDescent="0.3">
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="N21" s="5" t="s">
+      <c r="L21" s="4"/>
+      <c r="M21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N21" s="4" t="s">
         <v>102</v>
       </c>
       <c r="Q21" t="s">
@@ -1555,20 +1548,20 @@
       </c>
     </row>
     <row r="22" spans="11:44" x14ac:dyDescent="0.3">
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
     </row>
     <row r="23" spans="11:44" x14ac:dyDescent="0.3">
-      <c r="K23" s="5"/>
-      <c r="L23" s="5" t="s">
+      <c r="K23" s="4"/>
+      <c r="L23" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="M23" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="N23" s="5" t="s">
+      <c r="M23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N23" s="4" t="s">
         <v>103</v>
       </c>
       <c r="Q23" s="6" t="s">
@@ -1613,20 +1606,20 @@
       </c>
     </row>
     <row r="24" spans="11:44" x14ac:dyDescent="0.3">
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
     </row>
     <row r="25" spans="11:44" x14ac:dyDescent="0.3">
-      <c r="K25" s="5" t="s">
+      <c r="K25" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="N25" s="5" t="s">
+      <c r="L25" s="4"/>
+      <c r="M25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N25" s="4" t="s">
         <v>102</v>
       </c>
       <c r="Q25" s="6" t="s">
@@ -1672,20 +1665,20 @@
       </c>
     </row>
     <row r="26" spans="11:44" x14ac:dyDescent="0.3">
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
     </row>
     <row r="27" spans="11:44" x14ac:dyDescent="0.3">
-      <c r="K27" s="5"/>
-      <c r="L27" s="5" t="s">
+      <c r="K27" s="4"/>
+      <c r="L27" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="M27" s="5" t="s">
+      <c r="M27" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="N27" s="5" t="s">
+      <c r="N27" s="4" t="s">
         <v>104</v>
       </c>
       <c r="R27" s="6" t="s">
@@ -1731,20 +1724,20 @@
       </c>
     </row>
     <row r="28" spans="11:44" x14ac:dyDescent="0.3">
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
     </row>
     <row r="29" spans="11:44" x14ac:dyDescent="0.3">
-      <c r="K29" s="5"/>
-      <c r="L29" s="5" t="s">
+      <c r="K29" s="4"/>
+      <c r="L29" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="M29" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="N29" s="5" t="s">
+      <c r="M29" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N29" s="4" t="s">
         <v>105</v>
       </c>
       <c r="R29" s="6" t="s">
@@ -1781,20 +1774,20 @@
       </c>
     </row>
     <row r="30" spans="11:44" x14ac:dyDescent="0.3">
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
     </row>
     <row r="31" spans="11:44" x14ac:dyDescent="0.3">
-      <c r="K31" s="5"/>
-      <c r="L31" s="5" t="s">
+      <c r="K31" s="4"/>
+      <c r="L31" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="M31" s="5" t="s">
+      <c r="M31" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="N31" s="5" t="s">
+      <c r="N31" s="4" t="s">
         <v>106</v>
       </c>
       <c r="Z31" s="6" t="s">
@@ -1857,7 +1850,7 @@
       <c r="M35" t="s">
         <v>73</v>
       </c>
-      <c r="N35" s="4" t="s">
+      <c r="N35" s="2" t="s">
         <v>108</v>
       </c>
       <c r="Z35" s="6" t="s">
@@ -1888,7 +1881,7 @@
       <c r="M37" t="s">
         <v>74</v>
       </c>
-      <c r="N37" s="4" t="s">
+      <c r="N37" s="2" t="s">
         <v>109</v>
       </c>
       <c r="Y37" s="6" t="s">
@@ -2003,7 +1996,7 @@
       <c r="M45" t="s">
         <v>73</v>
       </c>
-      <c r="N45" s="4" t="s">
+      <c r="N45" s="2" t="s">
         <v>113</v>
       </c>
       <c r="Z45" s="6" t="s">
@@ -2024,7 +2017,7 @@
       <c r="M47" t="s">
         <v>74</v>
       </c>
-      <c r="N47" s="4" t="s">
+      <c r="N47" s="2" t="s">
         <v>112</v>
       </c>
       <c r="Z47" s="6" t="s">
@@ -2062,6 +2055,51 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="AN11:AP11"/>
+    <mergeCell ref="AN17:AO17"/>
+    <mergeCell ref="AN21:AO21"/>
+    <mergeCell ref="AO19:AP19"/>
+    <mergeCell ref="AG27:AI27"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AF21:AH21"/>
+    <mergeCell ref="AG23:AI23"/>
+    <mergeCell ref="AG25:AI25"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="Z43:AA43"/>
+    <mergeCell ref="Z45:AA45"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="AF41:AH41"/>
+    <mergeCell ref="AF29:AH29"/>
+    <mergeCell ref="AG31:AI31"/>
+    <mergeCell ref="AF33:AG33"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AG37:AH37"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="Z47:AA47"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AF13:AG13"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="Y37:Z37"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="Z23:AA23"/>
     <mergeCell ref="R17:T17"/>
     <mergeCell ref="AM3:AP3"/>
     <mergeCell ref="AE3:AH3"/>
@@ -2078,51 +2116,6 @@
     <mergeCell ref="Z15:AA15"/>
     <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="Z47:AA47"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AF13:AG13"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="Y37:Z37"/>
-    <mergeCell ref="Z39:AA39"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="AG23:AI23"/>
-    <mergeCell ref="AG25:AI25"/>
-    <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="Z43:AA43"/>
-    <mergeCell ref="Z45:AA45"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="AG39:AH39"/>
-    <mergeCell ref="AF41:AH41"/>
-    <mergeCell ref="AN11:AP11"/>
-    <mergeCell ref="AN17:AO17"/>
-    <mergeCell ref="AN21:AO21"/>
-    <mergeCell ref="AO19:AP19"/>
-    <mergeCell ref="AG27:AI27"/>
-    <mergeCell ref="AF29:AH29"/>
-    <mergeCell ref="AG31:AI31"/>
-    <mergeCell ref="AF33:AG33"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="AG37:AH37"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AF21:AH21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Architektura/website_architecture_list.xlsx
+++ b/Architektura/website_architecture_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakub\PhpstormProjects\Project_SI\Architektura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800D451D-F1B1-496D-929B-08F7CA5C84EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFEE962-1AEC-4661-B79F-5A012407D40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C4DA45A7-D938-0747-83AB-FECF0C752D43}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="194">
   <si>
     <t>HOME</t>
   </si>
@@ -603,6 +603,18 @@
   </si>
   <si>
     <t>stuContReportDel</t>
+  </si>
+  <si>
+    <t>cmpReportAdd</t>
+  </si>
+  <si>
+    <t>Napísanie pracovného výkazu</t>
+  </si>
+  <si>
+    <t>Zrušenie pracovného výkazu</t>
+  </si>
+  <si>
+    <t>cmpReportDel</t>
   </si>
 </sst>
 </file>
@@ -618,7 +630,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -634,12 +646,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,14 +668,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -988,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5B7B27-9C0C-C145-A167-201B91E0FE9A}">
   <dimension ref="A1:AR51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AK39" sqref="AK39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1041,31 +1050,31 @@
       <c r="E3" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="6"/>
+      <c r="K3" s="5"/>
       <c r="P3" t="s">
         <v>40</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="X3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AE3" s="6" t="s">
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AE3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AM3" s="6" t="s">
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AM3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AN3" s="6"/>
-      <c r="AO3" s="6"/>
-      <c r="AP3" s="6"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
@@ -1080,40 +1089,40 @@
       <c r="H5" t="s">
         <v>128</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="L5" s="6"/>
+      <c r="L5" s="5"/>
       <c r="M5" t="s">
         <v>72</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="6"/>
+      <c r="R5" s="5"/>
       <c r="U5" t="s">
         <v>72</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Y5" s="6" t="s">
+      <c r="Y5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Z5" s="6"/>
+      <c r="Z5" s="5"/>
       <c r="AB5" t="s">
         <v>72</v>
       </c>
       <c r="AC5" t="s">
         <v>132</v>
       </c>
-      <c r="AF5" s="6" t="s">
+      <c r="AF5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AG5" s="6"/>
+      <c r="AG5" s="5"/>
       <c r="AJ5" t="s">
         <v>72</v>
       </c>
@@ -1143,32 +1152,32 @@
       <c r="N7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
       <c r="U7" t="s">
         <v>72</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Z7" s="6" t="s">
+      <c r="Z7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AA7" s="6"/>
+      <c r="AA7" s="5"/>
       <c r="AB7" t="s">
         <v>73</v>
       </c>
       <c r="AC7" t="s">
         <v>131</v>
       </c>
-      <c r="AG7" s="6" t="s">
+      <c r="AG7" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AH7" s="6"/>
+      <c r="AH7" s="5"/>
       <c r="AJ7" t="s">
         <v>73</v>
       </c>
@@ -1198,30 +1207,30 @@
       <c r="N9" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="Q9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="R9" s="6"/>
+      <c r="R9" s="5"/>
       <c r="U9" t="s">
         <v>72</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Z9" s="6" t="s">
+      <c r="Z9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AA9" s="6"/>
+      <c r="AA9" s="5"/>
       <c r="AB9" t="s">
         <v>74</v>
       </c>
       <c r="AC9" t="s">
         <v>133</v>
       </c>
-      <c r="AG9" s="6" t="s">
+      <c r="AG9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AH9" s="6"/>
+      <c r="AH9" s="5"/>
       <c r="AJ9" t="s">
         <v>74</v>
       </c>
@@ -1248,42 +1257,42 @@
       <c r="N11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Q11" s="6" t="s">
+      <c r="Q11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
       <c r="U11" t="s">
         <v>72</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Z11" s="6" t="s">
+      <c r="Z11" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AA11" s="6"/>
+      <c r="AA11" s="5"/>
       <c r="AB11" t="s">
         <v>80</v>
       </c>
       <c r="AC11" t="s">
         <v>134</v>
       </c>
-      <c r="AG11" s="6" t="s">
+      <c r="AG11" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AH11" s="6"/>
+      <c r="AH11" s="5"/>
       <c r="AJ11" t="s">
         <v>80</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AK11" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="AN11" s="6" t="s">
+      <c r="AN11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AO11" s="6"/>
-      <c r="AP11" s="6"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
       <c r="AQ11" t="s">
         <v>72</v>
       </c>
@@ -1301,10 +1310,10 @@
       <c r="N13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="Q13" s="6" t="s">
+      <c r="Q13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="R13" s="6"/>
+      <c r="R13" s="5"/>
       <c r="U13" t="s">
         <v>72</v>
       </c>
@@ -1320,11 +1329,13 @@
       <c r="AC13" t="s">
         <v>135</v>
       </c>
-      <c r="AF13" s="6" t="s">
+      <c r="AF13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AG13" s="6"/>
-      <c r="AJ13" t="s">
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3" t="s">
         <v>72</v>
       </c>
       <c r="AK13" s="3" t="s">
@@ -1339,6 +1350,14 @@
       <c r="AR13" s="1" t="s">
         <v>174</v>
       </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.3">
       <c r="L15" t="s">
@@ -1350,32 +1369,34 @@
       <c r="N15" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="R15" s="6" t="s">
+      <c r="R15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
       <c r="U15" t="s">
         <v>73</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="Z15" s="6" t="s">
+      <c r="Z15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AA15" s="6"/>
+      <c r="AA15" s="5"/>
       <c r="AB15" t="s">
         <v>74</v>
       </c>
       <c r="AC15" t="s">
         <v>136</v>
       </c>
-      <c r="AG15" s="6" t="s">
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AH15" s="6"/>
-      <c r="AJ15" t="s">
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3" t="s">
         <v>73</v>
       </c>
       <c r="AK15" s="3" t="s">
@@ -1390,6 +1411,14 @@
       <c r="AR15" s="1" t="s">
         <v>175</v>
       </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
     </row>
     <row r="17" spans="11:44" x14ac:dyDescent="0.3">
       <c r="L17" t="s">
@@ -1401,47 +1430,63 @@
       <c r="N17" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="R17" s="5" t="s">
+      <c r="R17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
       <c r="U17" t="s">
         <v>74</v>
       </c>
       <c r="V17" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Y17" s="6" t="s">
+      <c r="Y17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Z17" s="6"/>
-      <c r="AB17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC17" t="s">
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC17" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="AG17" s="6" t="s">
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AH17" s="6"/>
-      <c r="AJ17" t="s">
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AK17" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="AN17" s="6" t="s">
+      <c r="AN17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AO17" s="6"/>
+      <c r="AO17" s="5"/>
       <c r="AQ17" t="s">
         <v>72</v>
       </c>
       <c r="AR17" s="1" t="s">
         <v>176</v>
       </c>
+    </row>
+    <row r="18" spans="11:44" x14ac:dyDescent="0.3">
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
     </row>
     <row r="19" spans="11:44" x14ac:dyDescent="0.3">
       <c r="L19" t="s">
@@ -1453,57 +1498,73 @@
       <c r="N19" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="R19" s="5" t="s">
+      <c r="R19" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
       <c r="U19" t="s">
         <v>80</v>
       </c>
       <c r="V19" t="s">
         <v>123</v>
       </c>
-      <c r="Z19" s="6" t="s">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AA19" s="6"/>
-      <c r="AB19" t="s">
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AC19" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="AG19" s="6" t="s">
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AH19" s="6"/>
-      <c r="AJ19" t="s">
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AK19" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="AO19" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP19" s="6"/>
+      <c r="AO19" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AP19" s="5"/>
       <c r="AQ19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AR19" s="1" t="s">
-        <v>177</v>
-      </c>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="11:44" x14ac:dyDescent="0.3">
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
     </row>
     <row r="21" spans="11:44" x14ac:dyDescent="0.3">
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="N21" s="4" t="s">
+      <c r="L21" s="3"/>
+      <c r="M21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N21" s="3" t="s">
         <v>102</v>
       </c>
       <c r="Q21" t="s">
@@ -1515,301 +1576,372 @@
       <c r="V21" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Z21" s="6" t="s">
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AA21" s="6"/>
-      <c r="AB21" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC21" t="s">
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC21" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="AF21" s="6" t="s">
+      <c r="AF21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AG21" s="6"/>
-      <c r="AH21" s="6"/>
-      <c r="AJ21" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK21" s="1" t="s">
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK21" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="AN21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AO21" s="6"/>
+      <c r="AO21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP21" s="5"/>
       <c r="AQ21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AR21" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="11:44" x14ac:dyDescent="0.3">
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
     </row>
     <row r="23" spans="11:44" x14ac:dyDescent="0.3">
-      <c r="K23" s="4"/>
-      <c r="L23" s="4" t="s">
+      <c r="K23" s="3"/>
+      <c r="L23" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="M23" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="N23" s="4" t="s">
+      <c r="M23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N23" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="Q23" s="6" t="s">
+      <c r="Q23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="R23" s="6"/>
+      <c r="R23" s="5"/>
       <c r="U23" t="s">
         <v>72</v>
       </c>
       <c r="V23" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="Z23" s="6" t="s">
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="AA23" s="6"/>
-      <c r="AB23" t="s">
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AC23" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="AG23" s="6" t="s">
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AH23" s="6"/>
-      <c r="AI23" s="6"/>
-      <c r="AJ23" t="s">
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="7"/>
+      <c r="AJ23" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AK23" s="1" t="s">
+      <c r="AK23" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="AO23" t="s">
-        <v>47</v>
-      </c>
-      <c r="AQ23" t="s">
+      <c r="AO23" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AP23" s="5"/>
+      <c r="AQ23" s="4" t="s">
         <v>73</v>
       </c>
       <c r="AR23" s="1" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="11:44" x14ac:dyDescent="0.3">
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
     </row>
     <row r="25" spans="11:44" x14ac:dyDescent="0.3">
-      <c r="K25" s="4" t="s">
+      <c r="K25" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="N25" s="4" t="s">
+      <c r="L25" s="3"/>
+      <c r="M25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N25" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="Q25" s="6" t="s">
+      <c r="Q25" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
       <c r="U25" t="s">
         <v>72</v>
       </c>
       <c r="V25" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="Y25" s="6" t="s">
+      <c r="Y25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Z25" s="6"/>
+      <c r="Z25" s="5"/>
       <c r="AB25" t="s">
         <v>72</v>
       </c>
       <c r="AC25" t="s">
         <v>141</v>
       </c>
-      <c r="AG25" s="6" t="s">
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AH25" s="6"/>
-      <c r="AI25" s="6"/>
-      <c r="AJ25" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK25" s="1" t="s">
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="7"/>
+      <c r="AJ25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK25" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="AO25" t="s">
-        <v>27</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR25" s="1" t="s">
-        <v>180</v>
+      <c r="AN25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO25" s="7"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR25" s="3" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="11:44" x14ac:dyDescent="0.3">
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
     </row>
     <row r="27" spans="11:44" x14ac:dyDescent="0.3">
-      <c r="K27" s="4"/>
-      <c r="L27" s="4" t="s">
+      <c r="K27" s="3"/>
+      <c r="L27" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="M27" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="N27" s="4" t="s">
+      <c r="N27" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="R27" s="6" t="s">
+      <c r="R27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
       <c r="U27" t="s">
         <v>74</v>
       </c>
       <c r="V27" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="Z27" s="6" t="s">
+      <c r="Z27" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AA27" s="6"/>
+      <c r="AA27" s="5"/>
       <c r="AB27" t="s">
         <v>73</v>
       </c>
       <c r="AC27" t="s">
         <v>142</v>
       </c>
-      <c r="AG27" s="6" t="s">
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="AH27" s="6"/>
-      <c r="AI27" s="6"/>
-      <c r="AJ27" t="s">
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="7"/>
+      <c r="AJ27" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AK27" t="s">
+      <c r="AK27" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="AO27" t="s">
-        <v>170</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR27" t="s">
-        <v>181</v>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR27" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="11:44" x14ac:dyDescent="0.3">
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
     </row>
     <row r="29" spans="11:44" x14ac:dyDescent="0.3">
-      <c r="K29" s="4"/>
-      <c r="L29" s="4" t="s">
+      <c r="K29" s="3"/>
+      <c r="L29" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="M29" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="N29" s="4" t="s">
+      <c r="M29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="R29" s="6" t="s">
+      <c r="R29" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
       <c r="U29" t="s">
         <v>74</v>
       </c>
       <c r="V29" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="Z29" s="6" t="s">
+      <c r="Z29" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AA29" s="6"/>
+      <c r="AA29" s="5"/>
       <c r="AB29" t="s">
         <v>74</v>
       </c>
       <c r="AC29" t="s">
         <v>143</v>
       </c>
-      <c r="AF29" s="6" t="s">
+      <c r="AF29" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="AG29" s="6"/>
-      <c r="AH29" s="6"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
       <c r="AJ29" t="s">
         <v>72</v>
       </c>
       <c r="AK29" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR29" s="3" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="30" spans="11:44" x14ac:dyDescent="0.3">
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="3"/>
+      <c r="AR30" s="3"/>
     </row>
     <row r="31" spans="11:44" x14ac:dyDescent="0.3">
-      <c r="K31" s="4"/>
-      <c r="L31" s="4" t="s">
+      <c r="K31" s="3"/>
+      <c r="L31" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="M31" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="N31" s="4" t="s">
+      <c r="N31" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="Z31" s="6" t="s">
+      <c r="Z31" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AA31" s="6"/>
+      <c r="AA31" s="5"/>
       <c r="AB31" t="s">
         <v>80</v>
       </c>
       <c r="AC31" t="s">
         <v>144</v>
       </c>
-      <c r="AG31" s="6" t="s">
+      <c r="AG31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AH31" s="6"/>
-      <c r="AI31" s="6"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
       <c r="AJ31" t="s">
         <v>74</v>
       </c>
       <c r="AK31" s="1" t="s">
         <v>164</v>
+      </c>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR31" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="11:37" x14ac:dyDescent="0.3">
@@ -1822,20 +1954,20 @@
       <c r="N33" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="Y33" s="6" t="s">
+      <c r="Y33" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Z33" s="6"/>
+      <c r="Z33" s="5"/>
       <c r="AB33" t="s">
         <v>72</v>
       </c>
       <c r="AC33" t="s">
         <v>135</v>
       </c>
-      <c r="AF33" s="6" t="s">
+      <c r="AF33" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AG33" s="6"/>
+      <c r="AG33" s="5"/>
       <c r="AJ33" t="s">
         <v>72</v>
       </c>
@@ -1853,20 +1985,20 @@
       <c r="N35" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="Z35" s="6" t="s">
+      <c r="Z35" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="AA35" s="6"/>
+      <c r="AA35" s="5"/>
       <c r="AB35" t="s">
         <v>74</v>
       </c>
       <c r="AC35" t="s">
         <v>136</v>
       </c>
-      <c r="AG35" s="6" t="s">
+      <c r="AG35" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AH35" s="6"/>
+      <c r="AH35" s="5"/>
       <c r="AJ35" t="s">
         <v>73</v>
       </c>
@@ -1884,26 +2016,34 @@
       <c r="N37" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="Y37" s="6" t="s">
+      <c r="Y37" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Z37" s="6"/>
-      <c r="AB37" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC37" t="s">
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC37" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="AG37" s="6" t="s">
+      <c r="AG37" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AH37" s="6"/>
+      <c r="AH37" s="5"/>
       <c r="AJ37" t="s">
         <v>74</v>
       </c>
       <c r="AK37" s="1" t="s">
         <v>167</v>
       </c>
+    </row>
+    <row r="38" spans="11:37" x14ac:dyDescent="0.3">
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
     </row>
     <row r="39" spans="11:37" x14ac:dyDescent="0.3">
       <c r="L39" t="s">
@@ -1915,24 +2055,25 @@
       <c r="N39" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="Z39" s="6" t="s">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AA39" s="6"/>
-      <c r="AB39" t="s">
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AC39" t="s">
+      <c r="AC39" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="AG39" s="6" t="s">
+      <c r="AG39" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AH39" s="6"/>
+      <c r="AH39" s="5"/>
       <c r="AJ39" t="s">
         <v>80</v>
       </c>
-      <c r="AK39" t="s">
+      <c r="AK39" s="2" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1946,25 +2087,26 @@
       <c r="N41" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="Y41" s="6" t="s">
+      <c r="Y41" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Z41" s="6"/>
+      <c r="Z41" s="5"/>
       <c r="AB41" t="s">
         <v>72</v>
       </c>
       <c r="AC41" t="s">
         <v>147</v>
       </c>
-      <c r="AF41" s="6" t="s">
+      <c r="AF41" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AG41" s="6"/>
-      <c r="AH41" s="6"/>
-      <c r="AJ41" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK41" s="1" t="s">
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="7"/>
+      <c r="AI41" s="3"/>
+      <c r="AJ41" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK41" s="3" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1978,10 +2120,10 @@
       <c r="N43" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="Z43" s="6" t="s">
+      <c r="Z43" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AA43" s="6"/>
+      <c r="AA43" s="5"/>
       <c r="AB43" t="s">
         <v>73</v>
       </c>
@@ -1999,10 +2141,10 @@
       <c r="N45" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="Z45" s="6" t="s">
+      <c r="Z45" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA45" s="6"/>
+      <c r="AA45" s="5"/>
       <c r="AB45" t="s">
         <v>74</v>
       </c>
@@ -2020,10 +2162,10 @@
       <c r="N47" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="Z47" s="6" t="s">
+      <c r="Z47" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AA47" s="6"/>
+      <c r="AA47" s="5"/>
       <c r="AB47" t="s">
         <v>80</v>
       </c>
@@ -2054,11 +2196,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="AN11:AP11"/>
+  <mergeCells count="63">
     <mergeCell ref="AN17:AO17"/>
-    <mergeCell ref="AN21:AO21"/>
-    <mergeCell ref="AO19:AP19"/>
+    <mergeCell ref="AN25:AO25"/>
+    <mergeCell ref="AO21:AP21"/>
     <mergeCell ref="AG27:AI27"/>
     <mergeCell ref="AG15:AH15"/>
     <mergeCell ref="AG17:AH17"/>
@@ -2066,6 +2207,8 @@
     <mergeCell ref="AF21:AH21"/>
     <mergeCell ref="AG23:AI23"/>
     <mergeCell ref="AG25:AI25"/>
+    <mergeCell ref="AO19:AP19"/>
+    <mergeCell ref="AO23:AP23"/>
     <mergeCell ref="Y41:Z41"/>
     <mergeCell ref="Z43:AA43"/>
     <mergeCell ref="Z45:AA45"/>
@@ -2078,6 +2221,8 @@
     <mergeCell ref="AF33:AG33"/>
     <mergeCell ref="AG35:AH35"/>
     <mergeCell ref="AG37:AH37"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="Z15:AA15"/>
     <mergeCell ref="R29:T29"/>
     <mergeCell ref="Z47:AA47"/>
     <mergeCell ref="AF5:AG5"/>
@@ -2092,32 +2237,31 @@
     <mergeCell ref="Y37:Z37"/>
     <mergeCell ref="Z39:AA39"/>
     <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="Z11:AA11"/>
     <mergeCell ref="R19:T19"/>
     <mergeCell ref="Q25:S25"/>
     <mergeCell ref="Q23:R23"/>
     <mergeCell ref="R27:T27"/>
     <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="R15:T15"/>
     <mergeCell ref="AM3:AP3"/>
     <mergeCell ref="AE3:AH3"/>
     <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="AN11:AP11"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="Z9:AA9"/>
     <mergeCell ref="Q7:T7"/>
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="Z9:AA9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Architektura/website_architecture_list.xlsx
+++ b/Architektura/website_architecture_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakub\PhpstormProjects\Project_SI\Architektura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFEE962-1AEC-4661-B79F-5A012407D40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F42041A-493B-4D1E-AB1B-D6F96690E04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C4DA45A7-D938-0747-83AB-FECF0C752D43}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="194">
   <si>
     <t>HOME</t>
   </si>
@@ -668,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -681,6 +681,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -995,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5B7B27-9C0C-C145-A167-201B91E0FE9A}">
-  <dimension ref="A1:AR51"/>
+  <dimension ref="A1:AR53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AK39" sqref="AK39"/>
+      <selection activeCell="AR17" sqref="AR17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1050,31 +1058,31 @@
       <c r="E3" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="5"/>
+      <c r="K3" s="8"/>
       <c r="P3" t="s">
         <v>40</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="X3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AE3" s="5" t="s">
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AE3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AM3" s="5" t="s">
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AM3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
@@ -1089,40 +1097,40 @@
       <c r="H5" t="s">
         <v>128</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="L5" s="5"/>
+      <c r="L5" s="8"/>
       <c r="M5" t="s">
         <v>72</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="5"/>
+      <c r="R5" s="8"/>
       <c r="U5" t="s">
         <v>72</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="Y5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Z5" s="5"/>
+      <c r="Z5" s="8"/>
       <c r="AB5" t="s">
         <v>72</v>
       </c>
       <c r="AC5" t="s">
         <v>132</v>
       </c>
-      <c r="AF5" s="5" t="s">
+      <c r="AF5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AG5" s="5"/>
+      <c r="AG5" s="8"/>
       <c r="AJ5" t="s">
         <v>72</v>
       </c>
@@ -1152,32 +1160,32 @@
       <c r="N7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="Q7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
       <c r="U7" t="s">
         <v>72</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Z7" s="5" t="s">
+      <c r="Z7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AA7" s="5"/>
+      <c r="AA7" s="8"/>
       <c r="AB7" t="s">
         <v>73</v>
       </c>
       <c r="AC7" t="s">
         <v>131</v>
       </c>
-      <c r="AG7" s="5" t="s">
+      <c r="AG7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AH7" s="5"/>
+      <c r="AH7" s="8"/>
       <c r="AJ7" t="s">
         <v>73</v>
       </c>
@@ -1190,7 +1198,7 @@
       <c r="AQ7" t="s">
         <v>73</v>
       </c>
-      <c r="AR7" t="s">
+      <c r="AR7" s="2" t="s">
         <v>171</v>
       </c>
     </row>
@@ -1207,30 +1215,30 @@
       <c r="N9" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="Q9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="R9" s="5"/>
+      <c r="R9" s="8"/>
       <c r="U9" t="s">
         <v>72</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Z9" s="5" t="s">
+      <c r="Z9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AA9" s="5"/>
+      <c r="AA9" s="8"/>
       <c r="AB9" t="s">
         <v>74</v>
       </c>
       <c r="AC9" t="s">
         <v>133</v>
       </c>
-      <c r="AG9" s="5" t="s">
+      <c r="AG9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AH9" s="5"/>
+      <c r="AH9" s="8"/>
       <c r="AJ9" t="s">
         <v>74</v>
       </c>
@@ -1257,42 +1265,42 @@
       <c r="N11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="Q11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
       <c r="U11" t="s">
         <v>72</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Z11" s="5" t="s">
+      <c r="Z11" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AA11" s="5"/>
+      <c r="AA11" s="8"/>
       <c r="AB11" t="s">
         <v>80</v>
       </c>
       <c r="AC11" t="s">
         <v>134</v>
       </c>
-      <c r="AG11" s="5" t="s">
+      <c r="AG11" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AH11" s="5"/>
+      <c r="AH11" s="8"/>
       <c r="AJ11" t="s">
         <v>80</v>
       </c>
       <c r="AK11" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="AN11" s="5" t="s">
+      <c r="AN11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AO11" s="5"/>
-      <c r="AP11" s="5"/>
+      <c r="AO11" s="8"/>
+      <c r="AP11" s="8"/>
       <c r="AQ11" t="s">
         <v>72</v>
       </c>
@@ -1310,10 +1318,10 @@
       <c r="N13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="Q13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="R13" s="5"/>
+      <c r="R13" s="8"/>
       <c r="U13" t="s">
         <v>72</v>
       </c>
@@ -1329,10 +1337,10 @@
       <c r="AC13" t="s">
         <v>135</v>
       </c>
-      <c r="AF13" s="7" t="s">
+      <c r="AF13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AG13" s="7"/>
+      <c r="AG13" s="9"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
       <c r="AJ13" s="3" t="s">
@@ -1369,21 +1377,21 @@
       <c r="N15" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="R15" s="5" t="s">
+      <c r="R15" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
       <c r="U15" t="s">
         <v>73</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="Z15" s="5" t="s">
+      <c r="Z15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AA15" s="5"/>
+      <c r="AA15" s="8"/>
       <c r="AB15" t="s">
         <v>74</v>
       </c>
@@ -1391,10 +1399,10 @@
         <v>136</v>
       </c>
       <c r="AF15" s="3"/>
-      <c r="AG15" s="7" t="s">
+      <c r="AG15" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AH15" s="7"/>
+      <c r="AH15" s="9"/>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3" t="s">
         <v>73</v>
@@ -1412,75 +1420,48 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N16" s="2"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="V16" s="1"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
       <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7"/>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
       <c r="AK16" s="3"/>
-    </row>
-    <row r="17" spans="11:44" x14ac:dyDescent="0.3">
-      <c r="L17" t="s">
-        <v>67</v>
-      </c>
-      <c r="M17" t="s">
-        <v>74</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="R17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" t="s">
-        <v>74</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC17" s="3" t="s">
-        <v>137</v>
-      </c>
+      <c r="AR16" s="11"/>
+    </row>
+    <row r="17" spans="11:44" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N17" s="2"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="V17" s="1"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
       <c r="AF17" s="3"/>
-      <c r="AG17" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="AG17" s="7"/>
       <c r="AH17" s="7"/>
       <c r="AI17" s="3"/>
-      <c r="AJ17" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK17" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AN17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AO17" s="5"/>
-      <c r="AQ17" t="s">
-        <v>72</v>
-      </c>
-      <c r="AR17" s="1" t="s">
-        <v>176</v>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AO17" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="AP17" s="11"/>
+      <c r="AQ17" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR17" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="11:44" x14ac:dyDescent="0.3">
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
@@ -1490,57 +1471,57 @@
     </row>
     <row r="19" spans="11:44" x14ac:dyDescent="0.3">
       <c r="L19" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="M19" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="R19" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
       <c r="U19" t="s">
-        <v>80</v>
-      </c>
-      <c r="V19" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA19" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="3"/>
       <c r="AB19" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC19" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF19" s="3"/>
-      <c r="AG19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH19" s="7"/>
+      <c r="AG19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH19" s="9"/>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AK19" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO19" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="AP19" s="5"/>
+        <v>157</v>
+      </c>
+      <c r="AN19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO19" s="8"/>
       <c r="AQ19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AR19" s="1" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="11:44" x14ac:dyDescent="0.3">
@@ -1557,64 +1538,61 @@
       <c r="AK20" s="3"/>
     </row>
     <row r="21" spans="11:44" x14ac:dyDescent="0.3">
-      <c r="K21" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>9</v>
-      </c>
+      <c r="L21" t="s">
+        <v>81</v>
+      </c>
+      <c r="M21" t="s">
+        <v>80</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
       <c r="U21" t="s">
-        <v>72</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>124</v>
+        <v>80</v>
+      </c>
+      <c r="V21" t="s">
+        <v>123</v>
       </c>
       <c r="Y21" s="3"/>
-      <c r="Z21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA21" s="7"/>
+      <c r="Z21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA21" s="9"/>
       <c r="AB21" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC21" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AF21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="7"/>
+        <v>138</v>
+      </c>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH21" s="9"/>
       <c r="AI21" s="3"/>
       <c r="AJ21" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AK21" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP21" s="5"/>
+        <v>158</v>
+      </c>
+      <c r="AO21" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="AP21" s="8"/>
       <c r="AQ21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AR21" s="1" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="11:44" x14ac:dyDescent="0.3">
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
@@ -1628,58 +1606,57 @@
       <c r="AK22" s="3"/>
     </row>
     <row r="23" spans="11:44" x14ac:dyDescent="0.3">
-      <c r="K23" s="3"/>
-      <c r="L23" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="K23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L23" s="3"/>
       <c r="M23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>9</v>
+      </c>
+      <c r="U23" t="s">
+        <v>72</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="R23" s="5"/>
-      <c r="U23" t="s">
-        <v>72</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="AC23" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF23" s="3"/>
-      <c r="AG23" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="7"/>
+        <v>139</v>
+      </c>
+      <c r="AF23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="3"/>
       <c r="AJ23" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK23" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO23" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AP23" s="5"/>
-      <c r="AQ23" s="4" t="s">
-        <v>73</v>
+        <v>159</v>
+      </c>
+      <c r="AO23" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP23" s="8"/>
+      <c r="AQ23" t="s">
+        <v>74</v>
       </c>
       <c r="AR23" s="1" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="11:44" x14ac:dyDescent="0.3">
@@ -1687,6 +1664,11 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
       <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
@@ -1695,59 +1677,58 @@
       <c r="AK24" s="3"/>
     </row>
     <row r="25" spans="11:44" x14ac:dyDescent="0.3">
-      <c r="K25" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="L25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="M25" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
+        <v>103</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="R25" s="8"/>
       <c r="U25" t="s">
         <v>72</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z25" s="5"/>
-      <c r="AB25" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>141</v>
+        <v>125</v>
+      </c>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC25" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="AF25" s="3"/>
-      <c r="AG25" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH25" s="7"/>
-      <c r="AI25" s="7"/>
+      <c r="AG25" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH25" s="9"/>
+      <c r="AI25" s="9"/>
       <c r="AJ25" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK25" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AN25" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AO25" s="7"/>
-      <c r="AP25" s="3"/>
-      <c r="AQ25" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AR25" s="3" t="s">
-        <v>178</v>
+        <v>160</v>
+      </c>
+      <c r="AO25" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="AP25" s="8"/>
+      <c r="AQ25" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR25" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="11:44" x14ac:dyDescent="0.3">
@@ -1761,66 +1742,61 @@
       <c r="AI26" s="3"/>
       <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
-      <c r="AN26" s="3"/>
-      <c r="AO26" s="3"/>
-      <c r="AP26" s="3"/>
-      <c r="AQ26" s="3"/>
-      <c r="AR26" s="3"/>
     </row>
     <row r="27" spans="11:44" x14ac:dyDescent="0.3">
-      <c r="K27" s="3"/>
-      <c r="L27" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="K27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L27" s="3"/>
       <c r="M27" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="R27" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
+        <v>102</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
       <c r="U27" t="s">
+        <v>72</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y27" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z27" s="8"/>
+      <c r="AB27" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH27" s="9"/>
+      <c r="AI27" s="9"/>
+      <c r="AJ27" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z27" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA27" s="5"/>
-      <c r="AB27" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF27" s="3"/>
-      <c r="AG27" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH27" s="7"/>
-      <c r="AI27" s="7"/>
-      <c r="AJ27" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="AK27" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AN27" s="3"/>
-      <c r="AO27" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="AN27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO27" s="9"/>
       <c r="AP27" s="3"/>
       <c r="AQ27" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AR27" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="11:44" x14ac:dyDescent="0.3">
@@ -1828,6 +1804,12 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
       <c r="AN28" s="3"/>
       <c r="AO28" s="3"/>
       <c r="AP28" s="3"/>
@@ -1837,56 +1819,57 @@
     <row r="29" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K29" s="3"/>
       <c r="L29" s="3" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="R29" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
+        <v>104</v>
+      </c>
+      <c r="R29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
       <c r="U29" t="s">
         <v>74</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z29" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA29" s="5"/>
+        <v>185</v>
+      </c>
+      <c r="Z29" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA29" s="8"/>
       <c r="AB29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC29" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF29" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG29" s="5"/>
-      <c r="AH29" s="5"/>
-      <c r="AJ29" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK29" s="1" t="s">
-        <v>163</v>
+        <v>142</v>
+      </c>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH29" s="9"/>
+      <c r="AI29" s="9"/>
+      <c r="AJ29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK29" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="AN29" s="3"/>
       <c r="AO29" s="3" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="AP29" s="3"/>
       <c r="AQ29" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AR29" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="11:44" x14ac:dyDescent="0.3">
@@ -1903,352 +1886,366 @@
     <row r="31" spans="11:44" x14ac:dyDescent="0.3">
       <c r="K31" s="3"/>
       <c r="L31" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z31" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA31" s="5"/>
+        <v>105</v>
+      </c>
+      <c r="R31" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" t="s">
+        <v>74</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z31" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA31" s="8"/>
       <c r="AB31" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AC31" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG31" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH31" s="5"/>
-      <c r="AI31" s="5"/>
+        <v>143</v>
+      </c>
+      <c r="AF31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
       <c r="AJ31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AK31" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AN31" s="3"/>
       <c r="AO31" s="3" t="s">
-        <v>170</v>
+        <v>27</v>
       </c>
       <c r="AP31" s="3"/>
       <c r="AQ31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR31" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="11:44" x14ac:dyDescent="0.3">
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="AN32" s="3"/>
+      <c r="AO32" s="3"/>
+      <c r="AP32" s="3"/>
+      <c r="AQ32" s="3"/>
+      <c r="AR32" s="3"/>
+    </row>
+    <row r="33" spans="11:44" x14ac:dyDescent="0.3">
+      <c r="K33" s="3"/>
+      <c r="L33" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M33" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AR31" s="3" t="s">
+      <c r="N33" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z33" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA33" s="8"/>
+      <c r="AB33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG33" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK33" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AN33" s="3"/>
+      <c r="AO33" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR33" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="11:37" x14ac:dyDescent="0.3">
-      <c r="K33" t="s">
+    <row r="35" spans="11:44" x14ac:dyDescent="0.3">
+      <c r="K35" t="s">
         <v>26</v>
       </c>
-      <c r="M33" t="s">
-        <v>72</v>
-      </c>
-      <c r="N33" s="2" t="s">
+      <c r="M35" t="s">
+        <v>72</v>
+      </c>
+      <c r="N35" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="Y33" s="5" t="s">
+      <c r="Y35" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="Z33" s="5"/>
-      <c r="AB33" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC33" t="s">
+      <c r="Z35" s="8"/>
+      <c r="AB35" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC35" t="s">
         <v>135</v>
       </c>
-      <c r="AF33" s="5" t="s">
+      <c r="AF35" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AG33" s="5"/>
-      <c r="AJ33" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK33" s="1" t="s">
+      <c r="AG35" s="8"/>
+      <c r="AJ35" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK35" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="35" spans="11:37" x14ac:dyDescent="0.3">
-      <c r="L35" t="s">
+    <row r="37" spans="11:44" x14ac:dyDescent="0.3">
+      <c r="L37" t="s">
         <v>69</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M37" t="s">
         <v>73</v>
       </c>
-      <c r="N35" s="2" t="s">
+      <c r="N37" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="Z35" s="5" t="s">
+      <c r="Z37" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AA35" s="5"/>
-      <c r="AB35" t="s">
+      <c r="AA37" s="8"/>
+      <c r="AB37" t="s">
         <v>74</v>
       </c>
-      <c r="AC35" t="s">
+      <c r="AC37" t="s">
         <v>136</v>
       </c>
-      <c r="AG35" s="5" t="s">
+      <c r="AG37" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AH35" s="5"/>
-      <c r="AJ35" t="s">
+      <c r="AH37" s="8"/>
+      <c r="AJ37" t="s">
         <v>73</v>
       </c>
-      <c r="AK35" s="1" t="s">
+      <c r="AK37" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="11:37" x14ac:dyDescent="0.3">
-      <c r="L37" t="s">
+    <row r="39" spans="11:44" x14ac:dyDescent="0.3">
+      <c r="L39" t="s">
         <v>70</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M39" t="s">
         <v>74</v>
       </c>
-      <c r="N37" s="2" t="s">
+      <c r="N39" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="Y37" s="7" t="s">
+      <c r="Y39" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="Z37" s="7"/>
-      <c r="AA37" s="3"/>
-      <c r="AB37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC37" s="3" t="s">
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC39" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="AG37" s="5" t="s">
+      <c r="AG39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AH37" s="5"/>
-      <c r="AJ37" t="s">
+      <c r="AH39" s="8"/>
+      <c r="AJ39" t="s">
         <v>74</v>
       </c>
-      <c r="AK37" s="1" t="s">
+      <c r="AK39" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="38" spans="11:37" x14ac:dyDescent="0.3">
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
-      <c r="AA38" s="3"/>
-      <c r="AB38" s="3"/>
-      <c r="AC38" s="3"/>
-    </row>
-    <row r="39" spans="11:37" x14ac:dyDescent="0.3">
-      <c r="L39" t="s">
+    <row r="40" spans="11:44" x14ac:dyDescent="0.3">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="11:44" x14ac:dyDescent="0.3">
+      <c r="L41" t="s">
         <v>83</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M41" t="s">
         <v>80</v>
       </c>
-      <c r="N39" s="2" t="s">
+      <c r="N41" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="7" t="s">
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AA39" s="7"/>
-      <c r="AB39" s="3" t="s">
+      <c r="AA41" s="9"/>
+      <c r="AB41" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AC39" s="3" t="s">
+      <c r="AC41" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="AG39" s="5" t="s">
+      <c r="AG41" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="AH39" s="5"/>
-      <c r="AJ39" t="s">
+      <c r="AH41" s="8"/>
+      <c r="AJ41" t="s">
         <v>80</v>
       </c>
-      <c r="AK39" s="2" t="s">
+      <c r="AK41" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="41" spans="11:37" x14ac:dyDescent="0.3">
-      <c r="K41" t="s">
+    <row r="43" spans="11:44" x14ac:dyDescent="0.3">
+      <c r="K43" t="s">
         <v>129</v>
       </c>
-      <c r="M41" t="s">
-        <v>72</v>
-      </c>
-      <c r="N41" s="2" t="s">
+      <c r="M43" t="s">
+        <v>72</v>
+      </c>
+      <c r="N43" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="Y41" s="5" t="s">
+      <c r="Y43" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Z41" s="5"/>
-      <c r="AB41" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC41" t="s">
+      <c r="Z43" s="8"/>
+      <c r="AB43" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC43" t="s">
         <v>147</v>
       </c>
-      <c r="AF41" s="7" t="s">
+      <c r="AF43" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AG41" s="7"/>
-      <c r="AH41" s="7"/>
-      <c r="AI41" s="3"/>
-      <c r="AJ41" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK41" s="3" t="s">
+      <c r="AG43" s="9"/>
+      <c r="AH43" s="9"/>
+      <c r="AI43" s="3"/>
+      <c r="AJ43" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK43" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="43" spans="11:37" x14ac:dyDescent="0.3">
-      <c r="K43" t="s">
+    <row r="45" spans="11:44" x14ac:dyDescent="0.3">
+      <c r="K45" t="s">
         <v>28</v>
       </c>
-      <c r="M43" t="s">
-        <v>72</v>
-      </c>
-      <c r="N43" s="2" t="s">
+      <c r="M45" t="s">
+        <v>72</v>
+      </c>
+      <c r="N45" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="Z43" s="5" t="s">
+      <c r="Z45" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AA43" s="5"/>
-      <c r="AB43" t="s">
+      <c r="AA45" s="8"/>
+      <c r="AB45" t="s">
         <v>73</v>
       </c>
-      <c r="AC43" t="s">
+      <c r="AC45" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="11:37" x14ac:dyDescent="0.3">
-      <c r="L45" t="s">
+    <row r="47" spans="11:44" x14ac:dyDescent="0.3">
+      <c r="L47" t="s">
         <v>3</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M47" t="s">
         <v>73</v>
       </c>
-      <c r="N45" s="2" t="s">
+      <c r="N47" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="Z45" s="5" t="s">
+      <c r="Z47" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AA45" s="5"/>
-      <c r="AB45" t="s">
+      <c r="AA47" s="8"/>
+      <c r="AB47" t="s">
         <v>74</v>
       </c>
-      <c r="AC45" t="s">
+      <c r="AC47" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="11:37" x14ac:dyDescent="0.3">
-      <c r="L47" t="s">
+    <row r="49" spans="11:29" x14ac:dyDescent="0.3">
+      <c r="L49" t="s">
         <v>27</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M49" t="s">
         <v>74</v>
       </c>
-      <c r="N47" s="2" t="s">
+      <c r="N49" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="Z47" s="5" t="s">
+      <c r="Z49" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AA47" s="5"/>
-      <c r="AB47" t="s">
+      <c r="AA49" s="8"/>
+      <c r="AB49" t="s">
         <v>80</v>
       </c>
-      <c r="AC47" t="s">
+      <c r="AC49" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="49" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="L49" t="s">
+    <row r="51" spans="11:29" x14ac:dyDescent="0.3">
+      <c r="L51" t="s">
         <v>84</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M51" t="s">
         <v>80</v>
       </c>
-      <c r="N49" s="2" t="s">
+      <c r="N51" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K51" t="s">
+    <row r="53" spans="11:29" x14ac:dyDescent="0.3">
+      <c r="K53" t="s">
         <v>130</v>
       </c>
-      <c r="M51" t="s">
-        <v>72</v>
-      </c>
-      <c r="N51" s="2" t="s">
+      <c r="M53" t="s">
+        <v>72</v>
+      </c>
+      <c r="N53" s="2" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="AN17:AO17"/>
-    <mergeCell ref="AN25:AO25"/>
-    <mergeCell ref="AO21:AP21"/>
-    <mergeCell ref="AG27:AI27"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AF21:AH21"/>
-    <mergeCell ref="AG23:AI23"/>
-    <mergeCell ref="AG25:AI25"/>
-    <mergeCell ref="AO19:AP19"/>
-    <mergeCell ref="AO23:AP23"/>
-    <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="Z43:AA43"/>
-    <mergeCell ref="Z45:AA45"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="AG39:AH39"/>
-    <mergeCell ref="AF41:AH41"/>
-    <mergeCell ref="AF29:AH29"/>
-    <mergeCell ref="AG31:AI31"/>
-    <mergeCell ref="AF33:AG33"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="AG37:AH37"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="Z47:AA47"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AF13:AG13"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="Y37:Z37"/>
-    <mergeCell ref="Z39:AA39"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="Z11:AA11"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="R15:T15"/>
     <mergeCell ref="AM3:AP3"/>
@@ -2260,6 +2257,58 @@
     <mergeCell ref="Q7:T7"/>
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AF13:AG13"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="Y35:Z35"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="Y39:Z39"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="AG41:AH41"/>
+    <mergeCell ref="AF43:AH43"/>
+    <mergeCell ref="AF31:AH31"/>
+    <mergeCell ref="AG33:AI33"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="AG37:AH37"/>
+    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="Z45:AA45"/>
+    <mergeCell ref="Z47:AA47"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="AN19:AO19"/>
+    <mergeCell ref="AN27:AO27"/>
+    <mergeCell ref="AO23:AP23"/>
+    <mergeCell ref="AG29:AI29"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AF23:AH23"/>
+    <mergeCell ref="AG25:AI25"/>
+    <mergeCell ref="AG27:AI27"/>
+    <mergeCell ref="AO21:AP21"/>
+    <mergeCell ref="AO25:AP25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Architektura/website_architecture_list.xlsx
+++ b/Architektura/website_architecture_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakub\PhpstormProjects\Project_SI\Architektura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F42041A-493B-4D1E-AB1B-D6F96690E04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D19E44-18B6-4733-9593-F6578C0B03D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C4DA45A7-D938-0747-83AB-FECF0C752D43}"/>
   </bookViews>
@@ -668,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -684,11 +684,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -1005,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5B7B27-9C0C-C145-A167-201B91E0FE9A}">
   <dimension ref="A1:AR53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AR17" sqref="AR17"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AR11" sqref="AR11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1058,31 +1061,31 @@
       <c r="E3" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="8"/>
+      <c r="K3" s="11"/>
       <c r="P3" t="s">
         <v>40</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="X3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AE3" s="8" t="s">
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AE3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-      <c r="AM3" s="8" t="s">
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AM3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AN3" s="8"/>
-      <c r="AO3" s="8"/>
-      <c r="AP3" s="8"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="11"/>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
@@ -1097,40 +1100,40 @@
       <c r="H5" t="s">
         <v>128</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="L5" s="8"/>
+      <c r="L5" s="11"/>
       <c r="M5" t="s">
         <v>72</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="8"/>
+      <c r="R5" s="11"/>
       <c r="U5" t="s">
         <v>72</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Y5" s="8" t="s">
+      <c r="Y5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Z5" s="8"/>
+      <c r="Z5" s="11"/>
       <c r="AB5" t="s">
         <v>72</v>
       </c>
       <c r="AC5" t="s">
         <v>132</v>
       </c>
-      <c r="AF5" s="8" t="s">
+      <c r="AF5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AG5" s="8"/>
+      <c r="AG5" s="11"/>
       <c r="AJ5" t="s">
         <v>72</v>
       </c>
@@ -1160,32 +1163,32 @@
       <c r="N7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="Q7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
       <c r="U7" t="s">
         <v>72</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Z7" s="8" t="s">
+      <c r="Z7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AA7" s="8"/>
+      <c r="AA7" s="11"/>
       <c r="AB7" t="s">
         <v>73</v>
       </c>
       <c r="AC7" t="s">
         <v>131</v>
       </c>
-      <c r="AG7" s="8" t="s">
+      <c r="AG7" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AH7" s="8"/>
+      <c r="AH7" s="11"/>
       <c r="AJ7" t="s">
         <v>73</v>
       </c>
@@ -1215,30 +1218,30 @@
       <c r="N9" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="Q9" s="8" t="s">
+      <c r="Q9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="R9" s="8"/>
+      <c r="R9" s="11"/>
       <c r="U9" t="s">
         <v>72</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Z9" s="8" t="s">
+      <c r="Z9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AA9" s="8"/>
+      <c r="AA9" s="11"/>
       <c r="AB9" t="s">
         <v>74</v>
       </c>
       <c r="AC9" t="s">
         <v>133</v>
       </c>
-      <c r="AG9" s="8" t="s">
+      <c r="AG9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AH9" s="8"/>
+      <c r="AH9" s="11"/>
       <c r="AJ9" t="s">
         <v>74</v>
       </c>
@@ -1265,42 +1268,42 @@
       <c r="N11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Q11" s="8" t="s">
+      <c r="Q11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
       <c r="U11" t="s">
         <v>72</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Z11" s="8" t="s">
+      <c r="Z11" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="AA11" s="8"/>
+      <c r="AA11" s="11"/>
       <c r="AB11" t="s">
         <v>80</v>
       </c>
       <c r="AC11" t="s">
         <v>134</v>
       </c>
-      <c r="AG11" s="8" t="s">
+      <c r="AG11" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="AH11" s="8"/>
+      <c r="AH11" s="11"/>
       <c r="AJ11" t="s">
         <v>80</v>
       </c>
       <c r="AK11" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="AN11" s="8" t="s">
+      <c r="AN11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AO11" s="8"/>
-      <c r="AP11" s="8"/>
+      <c r="AO11" s="11"/>
+      <c r="AP11" s="11"/>
       <c r="AQ11" t="s">
         <v>72</v>
       </c>
@@ -1318,10 +1321,10 @@
       <c r="N13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="Q13" s="8" t="s">
+      <c r="Q13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="R13" s="8"/>
+      <c r="R13" s="11"/>
       <c r="U13" t="s">
         <v>72</v>
       </c>
@@ -1337,10 +1340,10 @@
       <c r="AC13" t="s">
         <v>135</v>
       </c>
-      <c r="AF13" s="9" t="s">
+      <c r="AF13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AG13" s="9"/>
+      <c r="AG13" s="12"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
       <c r="AJ13" s="3" t="s">
@@ -1377,21 +1380,21 @@
       <c r="N15" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="R15" s="8" t="s">
+      <c r="R15" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
       <c r="U15" t="s">
         <v>73</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="Z15" s="8" t="s">
+      <c r="Z15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AA15" s="8"/>
+      <c r="AA15" s="11"/>
       <c r="AB15" t="s">
         <v>74</v>
       </c>
@@ -1399,10 +1402,10 @@
         <v>136</v>
       </c>
       <c r="AF15" s="3"/>
-      <c r="AG15" s="9" t="s">
+      <c r="AG15" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="AH15" s="9"/>
+      <c r="AH15" s="12"/>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3" t="s">
         <v>73</v>
@@ -1425,7 +1428,7 @@
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
-      <c r="V16" s="1"/>
+      <c r="V16" s="10"/>
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
       <c r="AF16" s="3"/>
@@ -1434,14 +1437,22 @@
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
       <c r="AK16" s="3"/>
-      <c r="AR16" s="11"/>
+      <c r="AR16" s="10"/>
     </row>
     <row r="17" spans="11:44" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="N17" s="2"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="V17" s="1"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
       <c r="AF17" s="3"/>
@@ -1450,11 +1461,11 @@
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
-      <c r="AO17" s="11" t="s">
+      <c r="AO17" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="AP17" s="11"/>
-      <c r="AQ17" s="11" t="s">
+      <c r="AP17" s="10"/>
+      <c r="AQ17" s="10" t="s">
         <v>80</v>
       </c>
       <c r="AR17" s="2" t="s">
@@ -1462,6 +1473,12 @@
       </c>
     </row>
     <row r="18" spans="11:44" x14ac:dyDescent="0.3">
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
@@ -1479,21 +1496,22 @@
       <c r="N19" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="R19" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" t="s">
-        <v>74</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y19" s="9" t="s">
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y19" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Z19" s="9"/>
+      <c r="Z19" s="12"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3" t="s">
         <v>72</v>
@@ -1502,10 +1520,10 @@
         <v>137</v>
       </c>
       <c r="AF19" s="3"/>
-      <c r="AG19" s="9" t="s">
+      <c r="AG19" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AH19" s="9"/>
+      <c r="AH19" s="12"/>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3" t="s">
         <v>74</v>
@@ -1513,10 +1531,10 @@
       <c r="AK19" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="AN19" s="8" t="s">
+      <c r="AN19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AO19" s="8"/>
+      <c r="AO19" s="11"/>
       <c r="AQ19" t="s">
         <v>72</v>
       </c>
@@ -1525,6 +1543,12 @@
       </c>
     </row>
     <row r="20" spans="11:44" x14ac:dyDescent="0.3">
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
@@ -1547,22 +1571,23 @@
       <c r="N21" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="R21" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" t="s">
-        <v>80</v>
-      </c>
-      <c r="V21" t="s">
-        <v>123</v>
+      <c r="Q21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="Y21" s="3"/>
-      <c r="Z21" s="9" t="s">
+      <c r="Z21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AA21" s="9"/>
+      <c r="AA21" s="12"/>
       <c r="AB21" s="3" t="s">
         <v>73</v>
       </c>
@@ -1570,10 +1595,10 @@
         <v>138</v>
       </c>
       <c r="AF21" s="3"/>
-      <c r="AG21" s="9" t="s">
+      <c r="AG21" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="AH21" s="9"/>
+      <c r="AH21" s="12"/>
       <c r="AI21" s="3"/>
       <c r="AJ21" s="3" t="s">
         <v>80</v>
@@ -1581,10 +1606,10 @@
       <c r="AK21" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="AO21" s="8" t="s">
+      <c r="AO21" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="AP21" s="8"/>
+      <c r="AP21" s="11"/>
       <c r="AQ21" t="s">
         <v>73</v>
       </c>
@@ -1593,6 +1618,12 @@
       </c>
     </row>
     <row r="22" spans="11:44" x14ac:dyDescent="0.3">
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
@@ -1616,31 +1647,34 @@
       <c r="N23" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="Q23" t="s">
-        <v>9</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="Q23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="R23" s="8"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9" t="s">
         <v>72</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y23" s="3"/>
-      <c r="Z23" s="9" t="s">
+      <c r="Z23" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AA23" s="9"/>
+      <c r="AA23" s="12"/>
       <c r="AB23" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AC23" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="AF23" s="9" t="s">
+      <c r="AF23" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="9"/>
+      <c r="AG23" s="12"/>
+      <c r="AH23" s="12"/>
       <c r="AI23" s="3"/>
       <c r="AJ23" s="3" t="s">
         <v>72</v>
@@ -1648,10 +1682,10 @@
       <c r="AK23" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="AO23" s="8" t="s">
+      <c r="AO23" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AP23" s="8"/>
+      <c r="AP23" s="11"/>
       <c r="AQ23" t="s">
         <v>74</v>
       </c>
@@ -1664,6 +1698,12 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
@@ -1688,20 +1728,22 @@
         <v>103</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="R25" s="8"/>
-      <c r="U25" t="s">
+      <c r="S25" s="8"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9" t="s">
         <v>72</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="Y25" s="3"/>
-      <c r="Z25" s="9" t="s">
+      <c r="Z25" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AA25" s="9"/>
+      <c r="AA25" s="12"/>
       <c r="AB25" s="3" t="s">
         <v>80</v>
       </c>
@@ -1709,21 +1751,21 @@
         <v>140</v>
       </c>
       <c r="AF25" s="3"/>
-      <c r="AG25" s="9" t="s">
+      <c r="AG25" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AH25" s="9"/>
-      <c r="AI25" s="9"/>
+      <c r="AH25" s="12"/>
+      <c r="AI25" s="12"/>
       <c r="AJ25" s="3" t="s">
         <v>73</v>
       </c>
       <c r="AK25" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="AO25" s="8" t="s">
+      <c r="AO25" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="AP25" s="8"/>
+      <c r="AP25" s="11"/>
       <c r="AQ25" s="4" t="s">
         <v>73</v>
       </c>
@@ -1736,6 +1778,12 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
@@ -1754,21 +1802,22 @@
       <c r="N27" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="Q27" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="R27" s="8"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="S27" s="8"/>
-      <c r="U27" t="s">
-        <v>72</v>
+      <c r="T27" s="8"/>
+      <c r="U27" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y27" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Z27" s="8"/>
+      <c r="Z27" s="11"/>
       <c r="AB27" t="s">
         <v>72</v>
       </c>
@@ -1776,21 +1825,21 @@
         <v>141</v>
       </c>
       <c r="AF27" s="3"/>
-      <c r="AG27" s="9" t="s">
+      <c r="AG27" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="AH27" s="9"/>
-      <c r="AI27" s="9"/>
+      <c r="AH27" s="12"/>
+      <c r="AI27" s="12"/>
       <c r="AJ27" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AK27" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="AN27" s="9" t="s">
+      <c r="AN27" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="AO27" s="9"/>
+      <c r="AO27" s="12"/>
       <c r="AP27" s="3"/>
       <c r="AQ27" s="3" t="s">
         <v>72</v>
@@ -1827,21 +1876,21 @@
       <c r="N29" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="R29" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
+      <c r="R29" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
       <c r="U29" t="s">
         <v>74</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z29" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z29" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AA29" s="8"/>
+      <c r="AA29" s="11"/>
       <c r="AB29" t="s">
         <v>73</v>
       </c>
@@ -1849,11 +1898,11 @@
         <v>142</v>
       </c>
       <c r="AF29" s="3"/>
-      <c r="AG29" s="9" t="s">
+      <c r="AG29" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="AH29" s="9"/>
-      <c r="AI29" s="9"/>
+      <c r="AH29" s="12"/>
+      <c r="AI29" s="12"/>
       <c r="AJ29" s="3" t="s">
         <v>80</v>
       </c>
@@ -1894,32 +1943,21 @@
       <c r="N31" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="R31" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" t="s">
-        <v>74</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z31" s="8" t="s">
+      <c r="Z31" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AA31" s="8"/>
+      <c r="AA31" s="11"/>
       <c r="AB31" t="s">
         <v>74</v>
       </c>
       <c r="AC31" t="s">
         <v>143</v>
       </c>
-      <c r="AF31" s="8" t="s">
+      <c r="AF31" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AG31" s="8"/>
-      <c r="AH31" s="8"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="11"/>
       <c r="AJ31" t="s">
         <v>72</v>
       </c>
@@ -1960,21 +1998,21 @@
       <c r="N33" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="Z33" s="8" t="s">
+      <c r="Z33" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="AA33" s="8"/>
+      <c r="AA33" s="11"/>
       <c r="AB33" t="s">
         <v>80</v>
       </c>
       <c r="AC33" t="s">
         <v>144</v>
       </c>
-      <c r="AG33" s="8" t="s">
+      <c r="AG33" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AH33" s="8"/>
-      <c r="AI33" s="8"/>
+      <c r="AH33" s="11"/>
+      <c r="AI33" s="11"/>
       <c r="AJ33" t="s">
         <v>74</v>
       </c>
@@ -2003,20 +2041,20 @@
       <c r="N35" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="Y35" s="8" t="s">
+      <c r="Y35" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="Z35" s="8"/>
+      <c r="Z35" s="11"/>
       <c r="AB35" t="s">
         <v>72</v>
       </c>
       <c r="AC35" t="s">
         <v>135</v>
       </c>
-      <c r="AF35" s="8" t="s">
+      <c r="AF35" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AG35" s="8"/>
+      <c r="AG35" s="11"/>
       <c r="AJ35" t="s">
         <v>72</v>
       </c>
@@ -2034,20 +2072,20 @@
       <c r="N37" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="Z37" s="8" t="s">
+      <c r="Z37" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AA37" s="8"/>
+      <c r="AA37" s="11"/>
       <c r="AB37" t="s">
         <v>74</v>
       </c>
       <c r="AC37" t="s">
         <v>136</v>
       </c>
-      <c r="AG37" s="8" t="s">
+      <c r="AG37" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AH37" s="8"/>
+      <c r="AH37" s="11"/>
       <c r="AJ37" t="s">
         <v>73</v>
       </c>
@@ -2065,10 +2103,10 @@
       <c r="N39" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="Y39" s="9" t="s">
+      <c r="Y39" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="Z39" s="9"/>
+      <c r="Z39" s="12"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3" t="s">
         <v>72</v>
@@ -2076,10 +2114,10 @@
       <c r="AC39" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="AG39" s="8" t="s">
+      <c r="AG39" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AH39" s="8"/>
+      <c r="AH39" s="11"/>
       <c r="AJ39" t="s">
         <v>74</v>
       </c>
@@ -2105,20 +2143,20 @@
         <v>189</v>
       </c>
       <c r="Y41" s="3"/>
-      <c r="Z41" s="9" t="s">
+      <c r="Z41" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AA41" s="9"/>
+      <c r="AA41" s="12"/>
       <c r="AB41" s="3" t="s">
         <v>73</v>
       </c>
       <c r="AC41" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="AG41" s="8" t="s">
+      <c r="AG41" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="AH41" s="8"/>
+      <c r="AH41" s="11"/>
       <c r="AJ41" t="s">
         <v>80</v>
       </c>
@@ -2136,21 +2174,21 @@
       <c r="N43" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="Y43" s="8" t="s">
+      <c r="Y43" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Z43" s="8"/>
+      <c r="Z43" s="11"/>
       <c r="AB43" t="s">
         <v>72</v>
       </c>
       <c r="AC43" t="s">
         <v>147</v>
       </c>
-      <c r="AF43" s="9" t="s">
+      <c r="AF43" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="AG43" s="9"/>
-      <c r="AH43" s="9"/>
+      <c r="AG43" s="12"/>
+      <c r="AH43" s="12"/>
       <c r="AI43" s="3"/>
       <c r="AJ43" s="3" t="s">
         <v>72</v>
@@ -2169,10 +2207,10 @@
       <c r="N45" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="Z45" s="8" t="s">
+      <c r="Z45" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="AA45" s="8"/>
+      <c r="AA45" s="11"/>
       <c r="AB45" t="s">
         <v>73</v>
       </c>
@@ -2190,10 +2228,10 @@
       <c r="N47" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="Z47" s="8" t="s">
+      <c r="Z47" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="AA47" s="8"/>
+      <c r="AA47" s="11"/>
       <c r="AB47" t="s">
         <v>74</v>
       </c>
@@ -2211,10 +2249,10 @@
       <c r="N49" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="Z49" s="8" t="s">
+      <c r="Z49" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="AA49" s="8"/>
+      <c r="AA49" s="11"/>
       <c r="AB49" t="s">
         <v>80</v>
       </c>
@@ -2245,33 +2283,33 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="AM3:AP3"/>
-    <mergeCell ref="AE3:AH3"/>
-    <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="AN11:AP11"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="Q25:R25"/>
+  <mergeCells count="58">
+    <mergeCell ref="AN19:AO19"/>
+    <mergeCell ref="AN27:AO27"/>
+    <mergeCell ref="AO23:AP23"/>
+    <mergeCell ref="AG29:AI29"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AF23:AH23"/>
+    <mergeCell ref="AG25:AI25"/>
+    <mergeCell ref="AG27:AI27"/>
+    <mergeCell ref="AO21:AP21"/>
+    <mergeCell ref="AO25:AP25"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="Z45:AA45"/>
+    <mergeCell ref="Z47:AA47"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="AG41:AH41"/>
+    <mergeCell ref="AF43:AH43"/>
+    <mergeCell ref="AF31:AH31"/>
+    <mergeCell ref="AG33:AI33"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="AG37:AH37"/>
+    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="Z15:AA15"/>
     <mergeCell ref="R29:T29"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="R31:T31"/>
     <mergeCell ref="Z49:AA49"/>
     <mergeCell ref="AF5:AG5"/>
     <mergeCell ref="AG7:AH7"/>
@@ -2285,30 +2323,25 @@
     <mergeCell ref="Y39:Z39"/>
     <mergeCell ref="Z41:AA41"/>
     <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="AG41:AH41"/>
-    <mergeCell ref="AF43:AH43"/>
-    <mergeCell ref="AF31:AH31"/>
-    <mergeCell ref="AG33:AI33"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AG37:AH37"/>
-    <mergeCell ref="AG39:AH39"/>
-    <mergeCell ref="Y43:Z43"/>
-    <mergeCell ref="Z45:AA45"/>
-    <mergeCell ref="Z47:AA47"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="AN19:AO19"/>
-    <mergeCell ref="AN27:AO27"/>
-    <mergeCell ref="AO23:AP23"/>
-    <mergeCell ref="AG29:AI29"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AF23:AH23"/>
-    <mergeCell ref="AG25:AI25"/>
-    <mergeCell ref="AG27:AI27"/>
-    <mergeCell ref="AO21:AP21"/>
-    <mergeCell ref="AO25:AP25"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="AM3:AP3"/>
+    <mergeCell ref="AE3:AH3"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="AN11:AP11"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q11:S11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Architektura/website_architecture_list.xlsx
+++ b/Architektura/website_architecture_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakub\PhpstormProjects\Project_SI\Architektura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hrabcak\Documents\GitHub\Project_SI\Architektura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D19E44-18B6-4733-9593-F6578C0B03D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7FE94B-A797-433F-9C10-C22F015A74ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C4DA45A7-D938-0747-83AB-FECF0C752D43}"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="21600" windowHeight="11295" xr2:uid="{C4DA45A7-D938-0747-83AB-FECF0C752D43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -668,24 +668,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -694,7 +687,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -710,7 +703,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1008,45 +1001,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5B7B27-9C0C-C145-A167-201B91E0FE9A}">
   <dimension ref="A1:AR53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AR11" sqref="AR11"/>
+    <sheetView tabSelected="1" topLeftCell="AW44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="11.19921875" customWidth="1"/>
-    <col min="20" max="20" width="12.796875" customWidth="1"/>
+    <col min="18" max="19" width="11.25" customWidth="1"/>
+    <col min="20" max="20" width="12.75" customWidth="1"/>
     <col min="21" max="21" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.796875" customWidth="1"/>
-    <col min="27" max="27" width="18.296875" customWidth="1"/>
+    <col min="22" max="22" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.75" customWidth="1"/>
+    <col min="27" max="27" width="18.25" customWidth="1"/>
     <col min="28" max="28" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="3.5" customWidth="1"/>
-    <col min="32" max="32" width="5.19921875" customWidth="1"/>
-    <col min="35" max="35" width="11.19921875" customWidth="1"/>
+    <col min="32" max="32" width="5.25" customWidth="1"/>
+    <col min="35" max="35" width="11.25" customWidth="1"/>
     <col min="36" max="36" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="18.09765625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.69921875" customWidth="1"/>
+    <col min="37" max="37" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.75" customWidth="1"/>
     <col min="40" max="40" width="10" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="19.796875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.75" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>183</v>
       </c>
@@ -1054,40 +1047,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="11"/>
+      <c r="K3" s="6"/>
       <c r="P3" t="s">
         <v>40</v>
       </c>
-      <c r="X3" s="11" t="s">
+      <c r="X3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AE3" s="11" t="s">
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AE3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
-      <c r="AM3" s="11" t="s">
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AM3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AN3" s="11"/>
-      <c r="AO3" s="11"/>
-      <c r="AP3" s="11"/>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>1</v>
       </c>
@@ -1100,40 +1093,40 @@
       <c r="H5" t="s">
         <v>128</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="L5" s="11"/>
+      <c r="L5" s="6"/>
       <c r="M5" t="s">
         <v>72</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="11"/>
+      <c r="R5" s="6"/>
       <c r="U5" t="s">
         <v>72</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Y5" s="11" t="s">
+      <c r="Y5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Z5" s="11"/>
+      <c r="Z5" s="6"/>
       <c r="AB5" t="s">
         <v>72</v>
       </c>
       <c r="AC5" t="s">
         <v>132</v>
       </c>
-      <c r="AF5" s="11" t="s">
+      <c r="AF5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AG5" s="11"/>
+      <c r="AG5" s="6"/>
       <c r="AJ5" t="s">
         <v>72</v>
       </c>
@@ -1150,7 +1143,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>21</v>
       </c>
@@ -1163,32 +1156,32 @@
       <c r="N7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="Q7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
       <c r="U7" t="s">
         <v>72</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Z7" s="11" t="s">
+      <c r="Z7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AA7" s="11"/>
+      <c r="AA7" s="6"/>
       <c r="AB7" t="s">
         <v>73</v>
       </c>
       <c r="AC7" t="s">
         <v>131</v>
       </c>
-      <c r="AG7" s="11" t="s">
+      <c r="AG7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AH7" s="11"/>
+      <c r="AH7" s="6"/>
       <c r="AJ7" t="s">
         <v>73</v>
       </c>
@@ -1205,7 +1198,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>71</v>
       </c>
@@ -1218,30 +1211,30 @@
       <c r="N9" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="Q9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="R9" s="11"/>
+      <c r="R9" s="6"/>
       <c r="U9" t="s">
         <v>72</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Z9" s="11" t="s">
+      <c r="Z9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AA9" s="11"/>
+      <c r="AA9" s="6"/>
       <c r="AB9" t="s">
         <v>74</v>
       </c>
       <c r="AC9" t="s">
         <v>133</v>
       </c>
-      <c r="AG9" s="11" t="s">
+      <c r="AG9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AH9" s="11"/>
+      <c r="AH9" s="6"/>
       <c r="AJ9" t="s">
         <v>74</v>
       </c>
@@ -1258,7 +1251,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="L11" t="s">
         <v>64</v>
       </c>
@@ -1268,42 +1261,42 @@
       <c r="N11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="Q11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
       <c r="U11" t="s">
         <v>72</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Z11" s="11" t="s">
+      <c r="Z11" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AA11" s="11"/>
+      <c r="AA11" s="6"/>
       <c r="AB11" t="s">
         <v>80</v>
       </c>
       <c r="AC11" t="s">
         <v>134</v>
       </c>
-      <c r="AG11" s="11" t="s">
+      <c r="AG11" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AH11" s="11"/>
+      <c r="AH11" s="6"/>
       <c r="AJ11" t="s">
         <v>80</v>
       </c>
       <c r="AK11" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="AN11" s="11" t="s">
+      <c r="AN11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AO11" s="11"/>
-      <c r="AP11" s="11"/>
+      <c r="AO11" s="6"/>
+      <c r="AP11" s="6"/>
       <c r="AQ11" t="s">
         <v>72</v>
       </c>
@@ -1311,7 +1304,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="L13" t="s">
         <v>79</v>
       </c>
@@ -1321,10 +1314,10 @@
       <c r="N13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="Q13" s="11" t="s">
+      <c r="Q13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="R13" s="11"/>
+      <c r="R13" s="6"/>
       <c r="U13" t="s">
         <v>72</v>
       </c>
@@ -1340,10 +1333,10 @@
       <c r="AC13" t="s">
         <v>135</v>
       </c>
-      <c r="AF13" s="12" t="s">
+      <c r="AF13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AG13" s="12"/>
+      <c r="AG13" s="7"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
       <c r="AJ13" s="3" t="s">
@@ -1362,7 +1355,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
@@ -1370,7 +1363,7 @@
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="L15" t="s">
         <v>66</v>
       </c>
@@ -1380,21 +1373,21 @@
       <c r="N15" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="R15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
       <c r="U15" t="s">
         <v>73</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="Z15" s="11" t="s">
+      <c r="Z15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AA15" s="11"/>
+      <c r="AA15" s="6"/>
       <c r="AB15" t="s">
         <v>74</v>
       </c>
@@ -1402,10 +1395,10 @@
         <v>136</v>
       </c>
       <c r="AF15" s="3"/>
-      <c r="AG15" s="12" t="s">
+      <c r="AG15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AH15" s="12"/>
+      <c r="AH15" s="7"/>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3" t="s">
         <v>73</v>
@@ -1423,62 +1416,50 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:44" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="N16" s="2"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="V16" s="10"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
       <c r="AF16" s="3"/>
-      <c r="AG16" s="7"/>
-      <c r="AH16" s="7"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
       <c r="AK16" s="3"/>
-      <c r="AR16" s="10"/>
-    </row>
-    <row r="17" spans="11:44" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="11:44" x14ac:dyDescent="0.25">
       <c r="N17" s="2"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9" t="s">
+      <c r="R17" t="s">
         <v>50</v>
       </c>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9" t="s">
+      <c r="U17" t="s">
         <v>74</v>
       </c>
       <c r="V17" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
       <c r="AF17" s="3"/>
-      <c r="AG17" s="7"/>
-      <c r="AH17" s="7"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
-      <c r="AO17" s="10" t="s">
+      <c r="AO17" t="s">
         <v>170</v>
       </c>
-      <c r="AP17" s="10"/>
-      <c r="AQ17" s="10" t="s">
+      <c r="AQ17" t="s">
         <v>80</v>
       </c>
       <c r="AR17" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="11:44" x14ac:dyDescent="0.3">
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
+    <row r="18" spans="11:44" x14ac:dyDescent="0.25">
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
@@ -1486,7 +1467,7 @@
       <c r="AJ18" s="3"/>
       <c r="AK18" s="3"/>
     </row>
-    <row r="19" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="19" spans="11:44" x14ac:dyDescent="0.25">
       <c r="L19" t="s">
         <v>67</v>
       </c>
@@ -1496,22 +1477,19 @@
       <c r="N19" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9" t="s">
+      <c r="R19" t="s">
         <v>85</v>
       </c>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9" t="s">
+      <c r="U19" t="s">
         <v>80</v>
       </c>
       <c r="V19" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="Y19" s="12" t="s">
+      <c r="Y19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Z19" s="12"/>
+      <c r="Z19" s="7"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3" t="s">
         <v>72</v>
@@ -1520,10 +1498,10 @@
         <v>137</v>
       </c>
       <c r="AF19" s="3"/>
-      <c r="AG19" s="12" t="s">
+      <c r="AG19" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AH19" s="12"/>
+      <c r="AH19" s="7"/>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3" t="s">
         <v>74</v>
@@ -1531,10 +1509,10 @@
       <c r="AK19" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="AN19" s="11" t="s">
+      <c r="AN19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AO19" s="11"/>
+      <c r="AO19" s="6"/>
       <c r="AQ19" t="s">
         <v>72</v>
       </c>
@@ -1542,13 +1520,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="11:44" x14ac:dyDescent="0.3">
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
+    <row r="20" spans="11:44" x14ac:dyDescent="0.25">
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
@@ -1561,7 +1533,7 @@
       <c r="AJ20" s="3"/>
       <c r="AK20" s="3"/>
     </row>
-    <row r="21" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="21" spans="11:44" x14ac:dyDescent="0.25">
       <c r="L21" t="s">
         <v>81</v>
       </c>
@@ -1571,23 +1543,20 @@
       <c r="N21" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="Q21" s="9" t="s">
+      <c r="Q21" t="s">
         <v>9</v>
       </c>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9" t="s">
+      <c r="U21" t="s">
         <v>72</v>
       </c>
       <c r="V21" s="1" t="s">
         <v>124</v>
       </c>
       <c r="Y21" s="3"/>
-      <c r="Z21" s="12" t="s">
+      <c r="Z21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AA21" s="12"/>
+      <c r="AA21" s="7"/>
       <c r="AB21" s="3" t="s">
         <v>73</v>
       </c>
@@ -1595,10 +1564,10 @@
         <v>138</v>
       </c>
       <c r="AF21" s="3"/>
-      <c r="AG21" s="12" t="s">
+      <c r="AG21" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AH21" s="12"/>
+      <c r="AH21" s="7"/>
       <c r="AI21" s="3"/>
       <c r="AJ21" s="3" t="s">
         <v>80</v>
@@ -1606,10 +1575,10 @@
       <c r="AK21" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="AO21" s="11" t="s">
+      <c r="AO21" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="AP21" s="11"/>
+      <c r="AP21" s="6"/>
       <c r="AQ21" t="s">
         <v>73</v>
       </c>
@@ -1617,13 +1586,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="11:44" x14ac:dyDescent="0.3">
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
+    <row r="22" spans="11:44" x14ac:dyDescent="0.25">
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
@@ -1636,7 +1599,7 @@
       <c r="AJ22" s="3"/>
       <c r="AK22" s="3"/>
     </row>
-    <row r="23" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="23" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K23" s="3" t="s">
         <v>76</v>
       </c>
@@ -1647,34 +1610,32 @@
       <c r="N23" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="Q23" s="8" t="s">
+      <c r="Q23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="R23" s="8"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9" t="s">
+      <c r="R23" s="4"/>
+      <c r="U23" t="s">
         <v>72</v>
       </c>
       <c r="V23" s="1" t="s">
         <v>125</v>
       </c>
       <c r="Y23" s="3"/>
-      <c r="Z23" s="12" t="s">
+      <c r="Z23" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AA23" s="12"/>
+      <c r="AA23" s="7"/>
       <c r="AB23" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AC23" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="AF23" s="12" t="s">
+      <c r="AF23" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AG23" s="12"/>
-      <c r="AH23" s="12"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
       <c r="AI23" s="3"/>
       <c r="AJ23" s="3" t="s">
         <v>72</v>
@@ -1682,10 +1643,10 @@
       <c r="AK23" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="AO23" s="11" t="s">
+      <c r="AO23" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AP23" s="11"/>
+      <c r="AP23" s="6"/>
       <c r="AQ23" t="s">
         <v>74</v>
       </c>
@@ -1693,17 +1654,11 @@
         <v>177</v>
       </c>
     </row>
-    <row r="24" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="24" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
@@ -1716,7 +1671,7 @@
       <c r="AJ24" s="3"/>
       <c r="AK24" s="3"/>
     </row>
-    <row r="25" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="25" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K25" s="3"/>
       <c r="L25" s="3" t="s">
         <v>78</v>
@@ -1727,23 +1682,22 @@
       <c r="N25" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="Q25" s="8" t="s">
+      <c r="Q25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9" t="s">
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="U25" t="s">
         <v>72</v>
       </c>
       <c r="V25" s="1" t="s">
         <v>184</v>
       </c>
       <c r="Y25" s="3"/>
-      <c r="Z25" s="12" t="s">
+      <c r="Z25" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="AA25" s="12"/>
+      <c r="AA25" s="7"/>
       <c r="AB25" s="3" t="s">
         <v>80</v>
       </c>
@@ -1751,39 +1705,33 @@
         <v>140</v>
       </c>
       <c r="AF25" s="3"/>
-      <c r="AG25" s="12" t="s">
+      <c r="AG25" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AH25" s="12"/>
-      <c r="AI25" s="12"/>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="7"/>
       <c r="AJ25" s="3" t="s">
         <v>73</v>
       </c>
       <c r="AK25" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="AO25" s="11" t="s">
+      <c r="AO25" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="AP25" s="11"/>
-      <c r="AQ25" s="4" t="s">
+      <c r="AP25" s="6"/>
+      <c r="AQ25" t="s">
         <v>73</v>
       </c>
       <c r="AR25" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="26" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
@@ -1791,7 +1739,7 @@
       <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
     </row>
-    <row r="27" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="27" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K27" s="3" t="s">
         <v>75</v>
       </c>
@@ -1802,22 +1750,21 @@
       <c r="N27" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="8" t="s">
+      <c r="R27" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="9" t="s">
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" t="s">
         <v>74</v>
       </c>
       <c r="V27" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="Y27" s="11" t="s">
+      <c r="Y27" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Z27" s="11"/>
+      <c r="Z27" s="6"/>
       <c r="AB27" t="s">
         <v>72</v>
       </c>
@@ -1825,21 +1772,21 @@
         <v>141</v>
       </c>
       <c r="AF27" s="3"/>
-      <c r="AG27" s="12" t="s">
+      <c r="AG27" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AH27" s="12"/>
-      <c r="AI27" s="12"/>
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="7"/>
       <c r="AJ27" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AK27" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="AN27" s="12" t="s">
+      <c r="AN27" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AO27" s="12"/>
+      <c r="AO27" s="7"/>
       <c r="AP27" s="3"/>
       <c r="AQ27" s="3" t="s">
         <v>72</v>
@@ -1848,7 +1795,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="28" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="28" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -1865,7 +1812,7 @@
       <c r="AQ28" s="3"/>
       <c r="AR28" s="3"/>
     </row>
-    <row r="29" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="29" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K29" s="3"/>
       <c r="L29" s="3" t="s">
         <v>77</v>
@@ -1876,21 +1823,21 @@
       <c r="N29" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="R29" s="11" t="s">
+      <c r="R29" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
       <c r="U29" t="s">
         <v>74</v>
       </c>
       <c r="V29" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="Z29" s="11" t="s">
+      <c r="Z29" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AA29" s="11"/>
+      <c r="AA29" s="6"/>
       <c r="AB29" t="s">
         <v>73</v>
       </c>
@@ -1898,11 +1845,11 @@
         <v>142</v>
       </c>
       <c r="AF29" s="3"/>
-      <c r="AG29" s="12" t="s">
+      <c r="AG29" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="AH29" s="12"/>
-      <c r="AI29" s="12"/>
+      <c r="AH29" s="7"/>
+      <c r="AI29" s="7"/>
       <c r="AJ29" s="3" t="s">
         <v>80</v>
       </c>
@@ -1921,7 +1868,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="30" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="30" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -1932,7 +1879,7 @@
       <c r="AQ30" s="3"/>
       <c r="AR30" s="3"/>
     </row>
-    <row r="31" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="31" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K31" s="3"/>
       <c r="L31" s="3" t="s">
         <v>68</v>
@@ -1943,21 +1890,21 @@
       <c r="N31" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="Z31" s="11" t="s">
+      <c r="Z31" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AA31" s="11"/>
+      <c r="AA31" s="6"/>
       <c r="AB31" t="s">
         <v>74</v>
       </c>
       <c r="AC31" t="s">
         <v>143</v>
       </c>
-      <c r="AF31" s="11" t="s">
+      <c r="AF31" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AG31" s="11"/>
-      <c r="AH31" s="11"/>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="6"/>
       <c r="AJ31" t="s">
         <v>72</v>
       </c>
@@ -1976,7 +1923,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="32" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -1987,7 +1934,7 @@
       <c r="AQ32" s="3"/>
       <c r="AR32" s="3"/>
     </row>
-    <row r="33" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="33" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K33" s="3"/>
       <c r="L33" s="3" t="s">
         <v>82</v>
@@ -1998,21 +1945,21 @@
       <c r="N33" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="Z33" s="11" t="s">
+      <c r="Z33" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AA33" s="11"/>
+      <c r="AA33" s="6"/>
       <c r="AB33" t="s">
         <v>80</v>
       </c>
       <c r="AC33" t="s">
         <v>144</v>
       </c>
-      <c r="AG33" s="11" t="s">
+      <c r="AG33" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="AH33" s="11"/>
-      <c r="AI33" s="11"/>
+      <c r="AH33" s="6"/>
+      <c r="AI33" s="6"/>
       <c r="AJ33" t="s">
         <v>74</v>
       </c>
@@ -2031,7 +1978,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="35" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K35" t="s">
         <v>26</v>
       </c>
@@ -2041,20 +1988,20 @@
       <c r="N35" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="Y35" s="11" t="s">
+      <c r="Y35" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Z35" s="11"/>
+      <c r="Z35" s="6"/>
       <c r="AB35" t="s">
         <v>72</v>
       </c>
       <c r="AC35" t="s">
         <v>135</v>
       </c>
-      <c r="AF35" s="11" t="s">
+      <c r="AF35" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AG35" s="11"/>
+      <c r="AG35" s="6"/>
       <c r="AJ35" t="s">
         <v>72</v>
       </c>
@@ -2062,7 +2009,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="37" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="37" spans="11:44" x14ac:dyDescent="0.25">
       <c r="L37" t="s">
         <v>69</v>
       </c>
@@ -2072,20 +2019,20 @@
       <c r="N37" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="Z37" s="11" t="s">
+      <c r="Z37" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AA37" s="11"/>
+      <c r="AA37" s="6"/>
       <c r="AB37" t="s">
         <v>74</v>
       </c>
       <c r="AC37" t="s">
         <v>136</v>
       </c>
-      <c r="AG37" s="11" t="s">
+      <c r="AG37" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AH37" s="11"/>
+      <c r="AH37" s="6"/>
       <c r="AJ37" t="s">
         <v>73</v>
       </c>
@@ -2093,7 +2040,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="39" spans="11:44" x14ac:dyDescent="0.25">
       <c r="L39" t="s">
         <v>70</v>
       </c>
@@ -2103,10 +2050,10 @@
       <c r="N39" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="Y39" s="12" t="s">
+      <c r="Y39" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Z39" s="12"/>
+      <c r="Z39" s="7"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3" t="s">
         <v>72</v>
@@ -2114,10 +2061,10 @@
       <c r="AC39" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="AG39" s="11" t="s">
+      <c r="AG39" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AH39" s="11"/>
+      <c r="AH39" s="6"/>
       <c r="AJ39" t="s">
         <v>74</v>
       </c>
@@ -2125,14 +2072,14 @@
         <v>167</v>
       </c>
     </row>
-    <row r="40" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="40" spans="11:44" x14ac:dyDescent="0.25">
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
     </row>
-    <row r="41" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="41" spans="11:44" x14ac:dyDescent="0.25">
       <c r="L41" t="s">
         <v>83</v>
       </c>
@@ -2143,20 +2090,20 @@
         <v>189</v>
       </c>
       <c r="Y41" s="3"/>
-      <c r="Z41" s="12" t="s">
+      <c r="Z41" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AA41" s="12"/>
+      <c r="AA41" s="7"/>
       <c r="AB41" s="3" t="s">
         <v>73</v>
       </c>
       <c r="AC41" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="AG41" s="11" t="s">
+      <c r="AG41" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="AH41" s="11"/>
+      <c r="AH41" s="6"/>
       <c r="AJ41" t="s">
         <v>80</v>
       </c>
@@ -2164,7 +2111,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="43" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="43" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K43" t="s">
         <v>129</v>
       </c>
@@ -2174,21 +2121,21 @@
       <c r="N43" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="Y43" s="11" t="s">
+      <c r="Y43" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Z43" s="11"/>
+      <c r="Z43" s="6"/>
       <c r="AB43" t="s">
         <v>72</v>
       </c>
       <c r="AC43" t="s">
         <v>147</v>
       </c>
-      <c r="AF43" s="12" t="s">
+      <c r="AF43" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AG43" s="12"/>
-      <c r="AH43" s="12"/>
+      <c r="AG43" s="7"/>
+      <c r="AH43" s="7"/>
       <c r="AI43" s="3"/>
       <c r="AJ43" s="3" t="s">
         <v>72</v>
@@ -2197,7 +2144,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="45" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="45" spans="11:44" x14ac:dyDescent="0.25">
       <c r="K45" t="s">
         <v>28</v>
       </c>
@@ -2207,10 +2154,10 @@
       <c r="N45" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="Z45" s="11" t="s">
+      <c r="Z45" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AA45" s="11"/>
+      <c r="AA45" s="6"/>
       <c r="AB45" t="s">
         <v>73</v>
       </c>
@@ -2218,7 +2165,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="11:44" x14ac:dyDescent="0.3">
+    <row r="47" spans="11:44" x14ac:dyDescent="0.25">
       <c r="L47" t="s">
         <v>3</v>
       </c>
@@ -2228,10 +2175,10 @@
       <c r="N47" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="Z47" s="11" t="s">
+      <c r="Z47" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="AA47" s="11"/>
+      <c r="AA47" s="6"/>
       <c r="AB47" t="s">
         <v>74</v>
       </c>
@@ -2239,7 +2186,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="11:29" x14ac:dyDescent="0.3">
+    <row r="49" spans="11:29" x14ac:dyDescent="0.25">
       <c r="L49" t="s">
         <v>27</v>
       </c>
@@ -2249,10 +2196,10 @@
       <c r="N49" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="Z49" s="11" t="s">
+      <c r="Z49" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="AA49" s="11"/>
+      <c r="AA49" s="6"/>
       <c r="AB49" t="s">
         <v>80</v>
       </c>
@@ -2260,7 +2207,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="11:29" x14ac:dyDescent="0.3">
+    <row r="51" spans="11:29" x14ac:dyDescent="0.25">
       <c r="L51" t="s">
         <v>84</v>
       </c>
@@ -2271,7 +2218,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="11:29" x14ac:dyDescent="0.3">
+    <row r="53" spans="11:29" x14ac:dyDescent="0.25">
       <c r="K53" t="s">
         <v>130</v>
       </c>
@@ -2301,14 +2248,12 @@
     <mergeCell ref="Z47:AA47"/>
     <mergeCell ref="Y27:Z27"/>
     <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="AG41:AH41"/>
     <mergeCell ref="AF43:AH43"/>
     <mergeCell ref="AF31:AH31"/>
     <mergeCell ref="AG33:AI33"/>
     <mergeCell ref="AF35:AG35"/>
     <mergeCell ref="AG37:AH37"/>
     <mergeCell ref="AG39:AH39"/>
-    <mergeCell ref="Z15:AA15"/>
     <mergeCell ref="R29:T29"/>
     <mergeCell ref="Z49:AA49"/>
     <mergeCell ref="AF5:AG5"/>
@@ -2324,6 +2269,7 @@
     <mergeCell ref="Z41:AA41"/>
     <mergeCell ref="Y19:Z19"/>
     <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="AG41:AH41"/>
     <mergeCell ref="Z21:AA21"/>
     <mergeCell ref="Z23:AA23"/>
     <mergeCell ref="J3:K3"/>
@@ -2333,15 +2279,16 @@
     <mergeCell ref="Z11:AA11"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="R15:T15"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="Z15:AA15"/>
     <mergeCell ref="AM3:AP3"/>
     <mergeCell ref="AE3:AH3"/>
     <mergeCell ref="X3:AA3"/>
     <mergeCell ref="AN11:AP11"/>
     <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q11:S11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
